--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_TN\java_tn\요구사항 명세서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="186">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -211,11 +206,6 @@
   </si>
   <si>
     <t>상단 화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한정판 컬렉션 광고 이미지
-- 구매하기 버튼 클릭시 해당 제품들을 선택하여 검색한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1316,6 +1306,579 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>장바구니에 있는 제품의 이미지와 이름, 가격, 사이즈, 색상, 수량으로 구성
+- 수량은 변경 가능
+- 같은제품을 또 장바구니에 담으면 수량이 늘어난다.
+- 체크박스로 장바구니의 제품을 선택할 수 있다. 
+- 기본으로 모두 체크되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니의 총 금액과 구매버튼으로 구성되어 있다.
+- 구매버튼 클릭시 구매페이지로 이동
+- 선택된 제품들의 총가격이 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0047</t>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 비밀번호, 이름, 주소, 전화번호, 권한, 우편번호, 상세주소로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK : 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- NOTNULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 이메일, 비밀번호, 이름, 주소, 전화번호, 권한, 우편번호
+- 기본키 : 권한 = 회원</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 배송상태, 주문일, 이름, 전화번호, 주소, 우편번호, 상세주소로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 제품번호, 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 주문번호, 제품번호, 이메일, 배송상태, 주문일, 주문수량, 우편번호
+- 기본키 : 배송상태 = 주문완료, 주문일 = now()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0048</t>
+  </si>
+  <si>
+    <t>주문리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 사이즈, 수량으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 옵션번호, 제품번호, 사이즈, 수량</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문리스트번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 총가격, 주문수량으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- PK, AI : 주문리스트번호 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 제품번호, 주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 주문리스트번호, 제품번호, 주문번호, 총가격, 주문수량</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 선택수량, 목록상태, 선택상태로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 내목록번호, 이메일, 제품번호, 선택수량, 목록상태(찜, 장바구니), 선택상태
+- 기본키 : 수량 = 0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0049</t>
+  </si>
+  <si>
+    <t>이메일인증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 이메일, 인증번호
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 이메일번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 이메일, 인증번호</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1338,7 +1901,7 @@
       </rPr>
       <t xml:space="preserve">
 제품이미지를 선택하여 넣어준다.
-제품의 이름, 성별, 카테고리, 소분류, 사이즈, 가격, 한정판, 수량, 
+제품의 이름, 성별, 카테고리, 소분류, 사이즈, 가격, 수량, 
  타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자를 입력한다.
 - 이름, 성별, 카테고리, 사이즈, 가격, 수량, 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 
  제조년월, 제조사는 필수
@@ -1348,95 +1911,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>장바구니에 있는 제품의 이미지와 이름, 가격, 사이즈, 색상, 수량으로 구성
-- 수량은 변경 가능
-- 같은제품을 또 장바구니에 담으면 수량이 늘어난다.
-- 체크박스로 장바구니의 제품을 선택할 수 있다. 
-- 기본으로 모두 체크되어 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니의 총 금액과 구매버튼으로 구성되어 있다.
-- 구매버튼 클릭시 구매페이지로 이동
-- 선택된 제품들의 총가격이 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0047</t>
-  </si>
-  <si>
-    <t>옵션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 비밀번호, 이름, 주소, 전화번호, 권한, 우편번호, 상세주소로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK : 이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- NOTNULL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 이메일, 비밀번호, 이름, 주소, 전화번호, 권한, 우편번호
-- 기본키 : 권한 = 회원</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1498,7 +1972,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, 가격, 한정판, 등록일,
+      <t xml:space="preserve">, 가격, 등록일,
   타이틀, 내용, 내용이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자으로 구성
 </t>
     </r>
@@ -1551,486 +2025,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 배송상태, 주문일, 이름, 전화번호, 주소, 우편번호, 상세주소로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 제품번호, 이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 주문번호, 제품번호, 이메일, 배송상태, 주문일, 주문수량, 우편번호
-- 기본키 : 배송상태 = 주문완료, 주문일 = now()</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0048</t>
-  </si>
-  <si>
-    <t>주문리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>옵션번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 사이즈, 수량으로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 옵션번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 옵션번호, 제품번호, 사이즈, 수량</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문리스트번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 총가격, 주문수량으로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- PK, AI : 주문리스트번호 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 제품번호, 주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 주문리스트번호, 제품번호, 주문번호, 총가격, 주문수량</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>내목록번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 선택수량, 목록상태, 선택상태로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 내목록번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 내목록번호, 이메일, 제품번호, 선택수량, 목록상태(찜, 장바구니), 선택상태
-- 기본키 : 수량 = 0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0049</t>
-  </si>
-  <si>
-    <t>이메일인증</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 이메일, 인증번호
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 이메일번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 이메일, 인증번호</t>
-    </r>
+    <t>진행중
+(로그인 부분남음)
+(기능 남음)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -2113,7 +2117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2123,6 +2127,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2141,7 +2157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2179,6 +2195,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2241,7 +2263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2276,7 +2298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2500,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2554,14 +2576,14 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
+      <c r="G2" s="14" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2575,7 +2597,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
@@ -2585,7 +2607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2596,13 +2618,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
+      <c r="G4" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="115.5">
@@ -2613,10 +2635,10 @@
         <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -2633,10 +2655,10 @@
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -2653,16 +2675,16 @@
         <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
+      <c r="G7" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -2670,19 +2692,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
+      <c r="G8" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="99">
@@ -2690,13 +2712,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
@@ -2710,13 +2732,13 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
@@ -2730,13 +2752,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
@@ -2750,13 +2772,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -2770,13 +2792,13 @@
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -2790,13 +2812,13 @@
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
@@ -2810,13 +2832,13 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
@@ -2830,13 +2852,13 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
@@ -2850,13 +2872,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -2870,13 +2892,13 @@
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -2890,13 +2912,13 @@
         <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -2910,13 +2932,13 @@
         <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
@@ -2930,13 +2952,13 @@
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
@@ -2950,13 +2972,13 @@
         <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
@@ -2970,13 +2992,13 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
@@ -2987,16 +3009,16 @@
     </row>
     <row r="24" spans="1:7" ht="132">
       <c r="A24" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>16</v>
@@ -3010,13 +3032,13 @@
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
@@ -3030,13 +3052,13 @@
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3050,13 +3072,13 @@
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
@@ -3070,13 +3092,13 @@
         <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -3090,13 +3112,13 @@
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
@@ -3110,13 +3132,13 @@
         <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -3130,13 +3152,13 @@
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
@@ -3150,13 +3172,13 @@
         <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -3170,13 +3192,13 @@
         <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>16</v>
@@ -3190,13 +3212,13 @@
         <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -3210,13 +3232,13 @@
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -3230,13 +3252,13 @@
         <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -3250,13 +3272,13 @@
         <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
@@ -3270,13 +3292,13 @@
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
@@ -3290,13 +3312,13 @@
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
@@ -3310,13 +3332,13 @@
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -3330,13 +3352,13 @@
         <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>16</v>
@@ -3350,19 +3372,19 @@
         <v>52</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="D42" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>8</v>
+      <c r="G42" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
@@ -3370,19 +3392,19 @@
         <v>53</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>8</v>
+      <c r="G43" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3390,19 +3412,19 @@
         <v>54</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="D44" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>8</v>
+      <c r="G44" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3410,19 +3432,19 @@
         <v>55</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="D45" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>8</v>
+      <c r="G45" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3430,19 +3452,19 @@
         <v>56</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>8</v>
+      <c r="G46" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="82.5">
@@ -3450,79 +3472,79 @@
         <v>57</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>8</v>
+      <c r="G47" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66">
       <c r="A48" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>8</v>
+      <c r="G48" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="66">
       <c r="A49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>8</v>
+      <c r="G49" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:7">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="187">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -2028,6 +2028,11 @@
     <t>진행중
 (로그인 부분남음)
 (기능 남음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중
+(화면 구현 완료)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2522,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2723,8 +2728,8 @@
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
+      <c r="G9" s="14" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="188">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -875,6 +875,1100 @@
   </si>
   <si>
     <t>제품등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품관리리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 필수구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+리스트 화면과 같지만 아래 항목들이 다르다.
+- 모든 제품들을 보여준다.
+- 최근에 본 목록이 없다. 
+- 제품등록 버튼이 있다. 
+- 남은 수량이 보인다. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카테고리번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 이름으로 구성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- PK, AI : 카테고리번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 카테고리번호, 이름</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소분류번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 이름, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카테고리번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 소분류번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 카테고리번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 소분류번호, 카테고리번호, 이름</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 배송지가 입력이 안되어 있으면 안된 곳으로 focus되고 전송안됨
+- 구매가 완료되면 주문내역 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니의 추가한 제품의 이미지와 나의 장바구니 보기 버튼으로 구성되어있다.
+- 나의 장바구니 보기 버튼, 이미지 클릭시 장바구니 화면으로 이동
+- 이미지는 4개까지 보여지며 이전, 다음 버튼 클릭시 4개씩 움직인다. 
+- 이전, 다음 이미지가 없을 경우 처음 또는 마지막 이미지까지 이동하고
+ 이전, 다음 버튼을 숨긴다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이름, 전화번호, 주소로 구성되어 있다.
+- 저장된 값들이 보여지고 수정할 수 있다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품 설명이 보여진다.
+- 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자로 
+ 구성된다.
+- 글과 이미지 가능 
+- 수입자를 제외한 모든 속성 필수입력</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
+- 이미지, 이름, 성별, 카테고리, 사이즈, 가격, 수량은 필수
+- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 제품의 이미지와 가격, 이름이 보여진다.
+- 클릭하면 해당 상품의 상세화면으로 이동
+- 같은코드의 제품은 하나만 찜할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이미지와 이름, 가격으로 구성되어 있다.
+- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성
+- 기본으로 제품번호 오름차순 정렬
+- 같은코드의 제품은 하나만 보여진다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이름이 표시되고 제품의 사이즈, 수량을 선택한다.
+- 선택된 옵션은 색깔이 바뀐다. 
+- 사이즈는 해당제품의 제품코드가 가지고 있는 사이즈만 보여진다.
+- 해당 옵션의 재고가 없으면 다른 색깔로 바꾸고 선택할 수 없다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 배송지가 보여지고 수정할 수 있다.
+- 배송지는 이름, 주소, 전화번호로 구성
+- 모두 필수입력
+- 기존 배송지 사용을 선택하면 해당회원의 정보를 쓴다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 있는 제품의 이미지와 이름, 가격, 사이즈, 색상, 수량으로 구성
+- 수량은 변경 가능
+- 같은제품을 또 장바구니에 담으면 수량이 늘어난다.
+- 체크박스로 장바구니의 제품을 선택할 수 있다. 
+- 기본으로 모두 체크되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니의 총 금액과 구매버튼으로 구성되어 있다.
+- 구매버튼 클릭시 구매페이지로 이동
+- 선택된 제품들의 총가격이 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0047</t>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 비밀번호, 이름, 주소, 전화번호, 권한, 우편번호, 상세주소로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK : 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- NOTNULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 이메일, 비밀번호, 이름, 주소, 전화번호, 권한, 우편번호
+- 기본키 : 권한 = 회원</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 배송상태, 주문일, 이름, 전화번호, 주소, 우편번호, 상세주소로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 제품번호, 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 주문번호, 제품번호, 이메일, 배송상태, 주문일, 주문수량, 우편번호
+- 기본키 : 배송상태 = 주문완료, 주문일 = now()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0048</t>
+  </si>
+  <si>
+    <t>주문리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 사이즈, 수량으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 옵션번호, 제품번호, 사이즈, 수량</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문리스트번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 총가격, 주문수량으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- PK, AI : 주문리스트번호 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 제품번호, 주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 주문리스트번호, 제품번호, 주문번호, 총가격, 주문수량</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 선택수량, 목록상태, 선택상태로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 내목록번호, 이메일, 제품번호, 선택수량, 목록상태(찜, 장바구니), 선택상태
+- 기본키 : 수량 = 0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0049</t>
+  </si>
+  <si>
+    <t>이메일인증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 이메일, 인증번호
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 이메일번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 이메일, 인증번호</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이미지를 선택하여 넣어준다.
+제품의 이름, 성별, 카테고리, 소분류, 사이즈, 가격, 수량, 
+ 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자를 입력한다.
+- 이름, 성별, 카테고리, 사이즈, 가격, 수량, 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 
+ 제조년월, 제조사는 필수
+제품 설명을 입력한다.
+- 이미지 등록가능</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 제품이미지, 이름, 성별, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카테고리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 가격, 등록일,
+  타이틀, 내용, 내용이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 카테고리, 소분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 제품번호, 제품이미지, 이름, 성별, 카테고리, 가격, 등록일,
+ 타이틀, 내용, 내용이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자
+- 기본키 : 등록일 = now(), 수입자 = 아디다스코리아[유]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중
+(로그인 부분남음)
+(기능 남음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중
+(화면 구현 완료)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -931,7 +2025,7 @@
 - 이메일인증 버튼을 눌러 이메일로 인증 코드를 보낸다.
 - 이메일이 이미 가입되어 있으면 알림창을 띄운다.
 - 이메일로 받은 코드를 입력하여 일치하는지 확인을 한다.
-- 비밀번호 형태 : 최소1개의 숫자와 영어를 혼합하여 8자이상
+- 비밀번호 형태 : 최소1개의 숫자와 영어를 혼합하여 8자이상 20자이하
 약관동의 체크
 - 필수체크
 회원가입 버튼 클릭시
@@ -942,1097 +2036,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>제품관리리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* 필수구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-리스트 화면과 같지만 아래 항목들이 다르다.
-- 모든 제품들을 보여준다.
-- 최근에 본 목록이 없다. 
-- 제품등록 버튼이 있다. 
-- 남은 수량이 보인다. </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>카테고리번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 이름으로 구성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- PK, AI : 카테고리번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 카테고리번호, 이름</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>소분류번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 이름, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>카테고리번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">으로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 소분류번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 카테고리번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 소분류번호, 카테고리번호, 이름</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- 배송지가 입력이 안되어 있으면 안된 곳으로 focus되고 전송안됨
-- 구매가 완료되면 주문내역 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니의 추가한 제품의 이미지와 나의 장바구니 보기 버튼으로 구성되어있다.
-- 나의 장바구니 보기 버튼, 이미지 클릭시 장바구니 화면으로 이동
-- 이미지는 4개까지 보여지며 이전, 다음 버튼 클릭시 4개씩 움직인다. 
-- 이전, 다음 이미지가 없을 경우 처음 또는 마지막 이미지까지 이동하고
- 이전, 다음 버튼을 숨긴다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-이름, 전화번호, 주소로 구성되어 있다.
-- 저장된 값들이 보여지고 수정할 수 있다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품 설명이 보여진다.
-- 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자로 
- 구성된다.
-- 글과 이미지 가능 
-- 수입자를 제외한 모든 속성 필수입력</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
-- 이미지, 이름, 성별, 카테고리, 사이즈, 가격, 수량은 필수
-- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 제품의 이미지와 가격, 이름이 보여진다.
-- 클릭하면 해당 상품의 상세화면으로 이동
-- 같은코드의 제품은 하나만 찜할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품이미지와 이름, 가격으로 구성되어 있다.
-- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성
-- 기본으로 제품번호 오름차순 정렬
-- 같은코드의 제품은 하나만 보여진다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품이름이 표시되고 제품의 사이즈, 수량을 선택한다.
-- 선택된 옵션은 색깔이 바뀐다. 
-- 사이즈는 해당제품의 제품코드가 가지고 있는 사이즈만 보여진다.
-- 해당 옵션의 재고가 없으면 다른 색깔로 바꾸고 선택할 수 없다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원의 배송지가 보여지고 수정할 수 있다.
-- 배송지는 이름, 주소, 전화번호로 구성
-- 모두 필수입력
-- 기존 배송지 사용을 선택하면 해당회원의 정보를 쓴다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 있는 제품의 이미지와 이름, 가격, 사이즈, 색상, 수량으로 구성
-- 수량은 변경 가능
-- 같은제품을 또 장바구니에 담으면 수량이 늘어난다.
-- 체크박스로 장바구니의 제품을 선택할 수 있다. 
-- 기본으로 모두 체크되어 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니의 총 금액과 구매버튼으로 구성되어 있다.
-- 구매버튼 클릭시 구매페이지로 이동
-- 선택된 제품들의 총가격이 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0047</t>
-  </si>
-  <si>
-    <t>옵션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 비밀번호, 이름, 주소, 전화번호, 권한, 우편번호, 상세주소로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK : 이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- NOTNULL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 이메일, 비밀번호, 이름, 주소, 전화번호, 권한, 우편번호
-- 기본키 : 권한 = 회원</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 배송상태, 주문일, 이름, 전화번호, 주소, 우편번호, 상세주소로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 제품번호, 이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 주문번호, 제품번호, 이메일, 배송상태, 주문일, 주문수량, 우편번호
-- 기본키 : 배송상태 = 주문완료, 주문일 = now()</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0048</t>
-  </si>
-  <si>
-    <t>주문리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>옵션번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 사이즈, 수량으로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 옵션번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 옵션번호, 제품번호, 사이즈, 수량</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문리스트번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 총가격, 주문수량으로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- PK, AI : 주문리스트번호 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 제품번호, 주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 주문리스트번호, 제품번호, 주문번호, 총가격, 주문수량</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>내목록번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 선택수량, 목록상태, 선택상태로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 내목록번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 내목록번호, 이메일, 제품번호, 선택수량, 목록상태(찜, 장바구니), 선택상태
-- 기본키 : 수량 = 0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0049</t>
-  </si>
-  <si>
-    <t>이메일인증</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 이메일, 인증번호
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 이메일번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 이메일, 인증번호</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고 이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품이미지를 선택하여 넣어준다.
-제품의 이름, 성별, 카테고리, 소분류, 사이즈, 가격, 수량, 
- 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자를 입력한다.
-- 이름, 성별, 카테고리, 사이즈, 가격, 수량, 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 
- 제조년월, 제조사는 필수
-제품 설명을 입력한다.
-- 이미지 등록가능</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 제품이미지, 이름, 성별, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>카테고리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>소분류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 가격, 등록일,
-  타이틀, 내용, 내용이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자으로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 카테고리, 소분류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 제품번호, 제품이미지, 이름, 성별, 카테고리, 가격, 등록일,
- 타이틀, 내용, 내용이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자
-- 기본키 : 등록일 = now(), 수입자 = 아디다스코리아[유]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중
-(로그인 부분남음)
-(기능 남음)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중
-(화면 구현 완료)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2528,7 +2532,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2588,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2623,13 +2627,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="115.5">
@@ -2689,7 +2693,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -2709,7 +2713,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="99">
@@ -2729,7 +2733,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -2763,13 +2767,13 @@
         <v>136</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
+      <c r="G11" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -2783,12 +2787,12 @@
         <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2843,7 +2847,7 @@
         <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
@@ -2883,7 +2887,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -2903,7 +2907,7 @@
         <v>121</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -2923,7 +2927,7 @@
         <v>122</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -2983,7 +2987,7 @@
         <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
@@ -3063,7 +3067,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3103,7 +3107,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -3183,7 +3187,7 @@
         <v>98</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -3223,7 +3227,7 @@
         <v>146</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -3300,10 +3304,10 @@
         <v>108</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
@@ -3323,7 +3327,7 @@
         <v>152</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
@@ -3343,7 +3347,7 @@
         <v>107</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -3383,13 +3387,13 @@
         <v>113</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
@@ -3403,13 +3407,13 @@
         <v>138</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3423,13 +3427,13 @@
         <v>115</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3443,13 +3447,13 @@
         <v>117</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3463,13 +3467,13 @@
         <v>118</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="82.5">
@@ -3483,73 +3487,73 @@
         <v>143</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66">
       <c r="A48" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="66">
       <c r="A49" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="F50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:7">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="191">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -547,35 +547,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-비밀번호 찾기, 이메일 입력, 비밀번호입력, 로그인 유지, 로그인버튼, 회원가입버튼으로 구성되어 있다.
-- 이메일은 있지만 비밀번호가 다를경우 비밀번호를 다시입력하라고 알림
-- 이메일이 없으면 가입되지 않은 이메일이라고 알림
-- 로그인이 완료되면 메인페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일입력창과 비밀번호 재설정 버튼으로 구성되어 있다.
 - 이메일형태가 아닐경우 ( " 이메일 주소가 유효하지 않습니다. ")알림
 - 재설정 버튼 클릭시 해당 이메일로 새 비밀번호를 보냄</t>
@@ -606,36 +577,6 @@
 로그아웃 기능 
 - 자동로그인 기능해제
 - 로그아웃을 하면 로그인페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-이메일, 비밀번호로 구성되어 있다.
-- 저장된 값들이 보여지고 수정할 수 있다.
-- 비밀번호는 빈 입력창으로 보여진다.
-- 비밀번호는 최소1개의 숫자와 영어를 혼합하여 8자이상
-- 비밀번호를 입력하지 않으면 이전 비밀번호로 유지된다.</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1084,33 +1025,6 @@
 - 이미지는 4개까지 보여지며 이전, 다음 버튼 클릭시 4개씩 움직인다. 
 - 이전, 다음 이미지가 없을 경우 처음 또는 마지막 이미지까지 이동하고
  이전, 다음 버튼을 숨긴다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-이름, 전화번호, 주소로 구성되어 있다.
-- 저장된 값들이 보여지고 수정할 수 있다.</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1958,17 +1872,6 @@
  타이틀, 내용, 내용이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자
 - 기본키 : 등록일 = now(), 수입자 = 아디다스코리아[유]</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중
-(로그인 부분남음)
-(기능 남음)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중
-(화면 구현 완료)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2037,6 +1940,114 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+비밀번호 찾기, 이메일 입력, 비밀번호입력, 로그인 유지, 로그인버튼, 회원가입버튼으로 구성되어 있다.
+- 회원정보가 없으면 회원정보를 다시 입력하세요. 라고 알림
+- 로그인이 완료되면 메인페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중
+(기능 남음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중
+(틀만 잡음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이메일, 비밀번호로 구성되어 있다.
+- 이메일은 수정할 수 없다.
+- 저장된 값들이 보여지고 수정할 수 있다.
+- 비밀번호는 빈 입력창으로 보여진다.
+- 비밀번호는 최소1개의 숫자와 영어를 혼합하여 8자이상
+- 비밀번호를 입력하지 않으면 이전 비밀번호로 유지된다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이름, 전화번호, 주소로 구성되어 있다.
+- 저장된 값들이 보여지고 수정할 수 있다.</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2531,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2592,7 +2603,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2606,7 +2617,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
@@ -2627,13 +2638,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="115.5">
@@ -2693,7 +2704,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -2713,10 +2724,10 @@
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="99">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="82.5">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2727,13 +2738,13 @@
         <v>69</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>185</v>
+      <c r="G9" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -2747,13 +2758,13 @@
         <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
+      <c r="G10" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
@@ -2764,16 +2775,16 @@
         <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -2787,13 +2798,13 @@
         <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>8</v>
+      <c r="G12" s="14" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -2807,13 +2818,13 @@
         <v>74</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
+      <c r="G13" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2832,8 +2843,8 @@
       <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
+      <c r="G14" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
@@ -2847,16 +2858,16 @@
         <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="99">
+      <c r="G15" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="115.5">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2867,13 +2878,13 @@
         <v>80</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
+      <c r="G16" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
@@ -2887,7 +2898,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -2907,7 +2918,7 @@
         <v>121</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -2927,7 +2938,7 @@
         <v>122</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -2944,10 +2955,10 @@
         <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
@@ -2967,7 +2978,7 @@
         <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
@@ -2987,7 +2998,7 @@
         <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
@@ -3007,7 +3018,7 @@
         <v>86</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
@@ -3018,7 +3029,7 @@
     </row>
     <row r="24" spans="1:7" ht="132">
       <c r="A24" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>85</v>
@@ -3027,7 +3038,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>16</v>
@@ -3047,7 +3058,7 @@
         <v>88</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
@@ -3067,7 +3078,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3087,7 +3098,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
@@ -3107,7 +3118,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -3127,7 +3138,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
@@ -3147,7 +3158,7 @@
         <v>99</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -3164,10 +3175,10 @@
         <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
@@ -3187,7 +3198,7 @@
         <v>98</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -3224,10 +3235,10 @@
         <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -3241,13 +3252,13 @@
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -3261,13 +3272,13 @@
         <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -3287,7 +3298,7 @@
         <v>109</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
@@ -3304,10 +3315,10 @@
         <v>108</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
@@ -3324,10 +3335,10 @@
         <v>105</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
@@ -3347,7 +3358,7 @@
         <v>107</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -3387,13 +3398,13 @@
         <v>113</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
@@ -3404,16 +3415,16 @@
         <v>114</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="13" t="s">
-        <v>180</v>
+      <c r="G43" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3427,13 +3438,13 @@
         <v>115</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="13" t="s">
-        <v>180</v>
+      <c r="G44" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3447,13 +3458,13 @@
         <v>117</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="13" t="s">
-        <v>180</v>
+      <c r="G45" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3467,13 +3478,13 @@
         <v>118</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="13" t="s">
-        <v>180</v>
+      <c r="G46" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="82.5">
@@ -3484,76 +3495,76 @@
         <v>112</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="13" t="s">
-        <v>180</v>
+      <c r="G47" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66">
       <c r="A48" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="13" t="s">
-        <v>180</v>
+      <c r="G48" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="66">
       <c r="A49" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>180</v>
+      <c r="G49" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:7">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="11970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="189">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -402,10 +402,6 @@
   </si>
   <si>
     <t>수정화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -789,70 +785,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품관리, 주문관리로 구성되어 있다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제품등록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품관리리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* 필수구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-리스트 화면과 같지만 아래 항목들이 다르다.
-- 모든 제품들을 보여준다.
-- 최근에 본 목록이 없다. 
-- 제품등록 버튼이 있다. 
-- 남은 수량이 보인다. </t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1106,35 +1039,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품이미지와 이름, 가격으로 구성되어 있다.
-- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성
-- 기본으로 제품번호 오름차순 정렬
-- 같은코드의 제품은 하나만 보여진다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1663,9 +1567,6 @@
 - 기본키 : 수량 = 0</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0049</t>
   </si>
   <si>
     <t>이메일인증</t>
@@ -1989,10 +1890,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2048,6 +1945,113 @@
 이름, 전화번호, 주소로 구성되어 있다.
 - 저장된 값들이 보여지고 수정할 수 있다.</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이미지와 이름, 가격으로 구성되어 있다.
+- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성
+- 기본으로 제품번호 오름차순 정렬
+- 같은코드의 제품은 하나만 보여진다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관리자 전용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- 최근에 본 목록이 없다. 
+- 제품등록 버튼이 있다. 
+- 남은 수량이 보인다. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품관리, 주문관리로 구성되어 있다.
+- 제품관리 선택시 리스트페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중
+(모양만 잡음)
+(제품등록 진행중)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2540,10 +2544,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D17:D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2596,14 +2600,14 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2617,7 +2621,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
@@ -2638,13 +2642,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="115.5">
@@ -2658,7 +2662,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -2704,7 +2708,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -2724,7 +2728,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5">
@@ -2738,13 +2742,13 @@
         <v>69</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -2758,13 +2762,13 @@
         <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
@@ -2775,16 +2779,16 @@
         <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -2798,13 +2802,13 @@
         <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -2818,13 +2822,13 @@
         <v>74</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2844,7 +2848,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
@@ -2858,13 +2862,13 @@
         <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="115.5">
@@ -2878,13 +2882,13 @@
         <v>80</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
@@ -2898,7 +2902,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -2912,13 +2916,13 @@
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -2932,13 +2936,13 @@
         <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -2955,10 +2959,10 @@
         <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
@@ -2978,7 +2982,7 @@
         <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
@@ -2987,7 +2991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="82.5">
+    <row r="22" spans="1:7" ht="148.5">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -2998,13 +3002,13 @@
         <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
+      <c r="G22" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3018,7 +3022,7 @@
         <v>86</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
@@ -3029,7 +3033,7 @@
     </row>
     <row r="24" spans="1:7" ht="132">
       <c r="A24" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>85</v>
@@ -3038,7 +3042,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>16</v>
@@ -3058,7 +3062,7 @@
         <v>88</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
@@ -3078,7 +3082,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3098,7 +3102,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
@@ -3118,7 +3122,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -3138,7 +3142,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
@@ -3158,7 +3162,7 @@
         <v>99</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -3175,10 +3179,10 @@
         <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
@@ -3198,7 +3202,7 @@
         <v>98</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -3215,10 +3219,10 @@
         <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>16</v>
@@ -3235,10 +3239,10 @@
         <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -3252,13 +3256,13 @@
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -3272,13 +3276,13 @@
         <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -3287,7 +3291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="33">
+    <row r="37" spans="1:7" ht="49.5">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -3295,30 +3299,30 @@
         <v>103</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="99">
+      <c r="G37" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="132">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
@@ -3327,18 +3331,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="132">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:7" ht="66">
+      <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
@@ -3347,18 +3351,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="66">
+    <row r="40" spans="1:7" ht="49.5">
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>158</v>
+        <v>110</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -3367,98 +3371,98 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="49.5">
+    <row r="41" spans="1:7" ht="66">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>119</v>
+      <c r="C41" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="66">
+      <c r="G41" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="115.5">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>112</v>
+      <c r="B42" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="49.5">
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="115.5">
-      <c r="A43" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="D43" s="9" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="49.5">
+      <c r="G43" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="66">
       <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="66">
+      <c r="G44" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="82.5">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
@@ -3468,14 +3472,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>168</v>
@@ -3487,18 +3491,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="82.5">
+    <row r="47" spans="1:7" ht="66">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>173</v>
+        <v>111</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -3509,16 +3513,16 @@
     </row>
     <row r="48" spans="1:7" ht="66">
       <c r="A48" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>166</v>
-      </c>
       <c r="D48" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
@@ -3527,45 +3531,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="66">
+    <row r="49" spans="1:7" ht="49.5">
       <c r="A49" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="D49" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="49.5">
-      <c r="A50" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="G49" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:7">
       <c r="D51" s="2"/>
@@ -3578,9 +3565,6 @@
     </row>
     <row r="54" spans="1:7">
       <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="D55" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3"/>

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="194">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -991,34 +991,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
-- 이미지, 이름, 성별, 카테고리, 사이즈, 가격, 수량은 필수
-- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>선택한 제품의 이미지와 가격, 이름이 보여진다.
 - 클릭하면 해당 상품의 상세화면으로 이동
 - 같은코드의 제품은 하나만 찜할 수 있다.</t>
@@ -1627,152 +1599,6 @@
   </si>
   <si>
     <t>광고 이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품이미지를 선택하여 넣어준다.
-제품의 이름, 성별, 카테고리, 소분류, 사이즈, 가격, 수량, 
- 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자를 입력한다.
-- 이름, 성별, 카테고리, 사이즈, 가격, 수량, 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 
- 제조년월, 제조사는 필수
-제품 설명을 입력한다.
-- 이미지 등록가능</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 제품이미지, 이름, 성별, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>카테고리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>소분류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 가격, 등록일,
-  타이틀, 내용, 내용이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자으로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 카테고리, 소분류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 제품번호, 제품이미지, 이름, 성별, 카테고리, 가격, 등록일,
- 타이틀, 내용, 내용이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자
-- 기본키 : 등록일 = now(), 수입자 = 아디다스코리아[유]</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1965,6 +1791,218 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> * 필수구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품관리, 주문관리로 구성되어 있다.
+- 제품관리 선택시 리스트페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 제품이미지, 이름, 성별, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카테고리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 가격, 등록일,
+  타이틀, 내용, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 카테고리, 소분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 제품번호, 제품이미지, 이름, 성별, 카테고리, 가격, 등록일,
+ 타이틀, 내용, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자
+- 기본키 : 등록일 = now(), 수입자 = 아디다스코리아[유]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
+- 이미지, 이름, 성별, 카테고리, 사이즈, 가격, 수량은 필수
+- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0049</t>
+  </si>
+  <si>
+    <t>재고추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품의 사이즈와 수량을 입력하여 해당제품을 업데이트 한다.
+- 관리자는 리스트화면에서 재고추가 버튼을 볼 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이미지를 선택하여 넣어준다.
+제품의 이름, 성별, 카테고리, 소분류, 가격,
+ 타이틀, 내용, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자를 입력한다.
+- 이름, 성별, 카테고리, 가격, 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 
+ 제조년월, 제조사는 필수
+제품 설명을 입력한다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> * 필수 구현</t>
     </r>
     <r>
@@ -2017,41 +2055,24 @@
       </rPr>
       <t xml:space="preserve">- 최근에 본 목록이 없다. 
 - 제품등록 버튼이 있다. 
+- 재고추가 버튼이 있다.
 - 남은 수량이 보인다. </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품관리, 주문관리로 구성되어 있다.
-- 제품관리 선택시 리스트페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>진행중
-(모양만 잡음)
-(제품등록 진행중)</t>
+(틀만 잡음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중
+(카테고리, 소분류 설정 남음)
+(기능 수정 필요)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2544,10 +2565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2607,7 +2628,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2642,13 +2663,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="115.5">
@@ -2708,7 +2729,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -2728,7 +2749,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5">
@@ -2742,13 +2763,13 @@
         <v>69</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -2768,7 +2789,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
@@ -2782,13 +2803,13 @@
         <v>133</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -2808,7 +2829,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -2828,7 +2849,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2848,7 +2869,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
@@ -2862,13 +2883,13 @@
         <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="115.5">
@@ -2882,13 +2903,13 @@
         <v>80</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
@@ -2902,7 +2923,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -2922,7 +2943,7 @@
         <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -2942,7 +2963,7 @@
         <v>121</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -2991,7 +3012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="148.5">
+    <row r="22" spans="1:7" ht="165">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -3002,13 +3023,13 @@
         <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3082,7 +3103,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3202,7 +3223,7 @@
         <v>98</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -3302,16 +3323,16 @@
         <v>108</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="132">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="115.5">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -3322,47 +3343,47 @@
         <v>148</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="66">
+      <c r="G38" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="33">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="49.5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="66">
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -3371,47 +3392,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="66">
+    <row r="41" spans="1:7" ht="49.5">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>162</v>
+      <c r="B41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="115.5">
+      <c r="G41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="66">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>113</v>
+      <c r="B42" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="49.5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="115.5">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
@@ -3419,56 +3440,56 @@
         <v>113</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="66">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="49.5">
       <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="82.5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="66">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="12" t="s">
-        <v>8</v>
+      <c r="G45" s="13" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3476,13 +3497,13 @@
         <v>56</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -3491,18 +3512,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="66">
+    <row r="47" spans="1:7" ht="82.5">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>166</v>
+      <c r="C47" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -3513,16 +3534,16 @@
     </row>
     <row r="48" spans="1:7" ht="66">
       <c r="A48" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
@@ -3531,28 +3552,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="49.5">
+    <row r="49" spans="1:7" ht="66">
       <c r="A49" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="49.5">
+      <c r="A50" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="D50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="D51" s="2"/>
@@ -3565,6 +3603,9 @@
     </row>
     <row r="54" spans="1:7">
       <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="D55" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3"/>

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="195">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -685,15 +685,6 @@
   <si>
     <t>검색한 이름이 포함된 제품들을 보여준다.
 - 띄어쓰기도 제대로 맞춰야 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별, 카테고리, 소분류, 크기, 신상품, 가격, 정렬기준, 모두지우기로 구성된다.
-- 선택한 분류와 옵션으로 검색하여 리스트를 보여준다.
-- 가격은 최소가격, 최대가격으로 구성
-- 정렬기준은 가격낮은순, 가격높은순, 최근, 인기상품으로 구성
-- 모두지우기 버튼으로 선택된 카테고리를 모두 초기화 할 수있다.
-- 신상품은 제품의 등록일로 부터 1달이 지나면 해당안됨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2061,18 +2052,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>미진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별, 카테고리, 소분류, 크기, 신상품, 가격, 정렬기준, 모두지우기로 구성된다.
+- 선택한 분류와 옵션으로 검색하여 리스트를 보여준다.
+- 가격은 최소가격, 최대가격으로 구성
+- 정렬기준은 가격낮은순, 가격높은순, 최근, 인기상품으로 구성
+- 모두지우기 버튼으로 선택된 카테고리를 모두 초기화 할 수있다.
+- 신상품은 제품의 등록일로 부터 1달이 지나면 해당안됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>진행중
-(틀만 잡음)</t>
+(화면 구현 완료)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>진행중
-(카테고리, 소분류 설정 남음)
-(기능 수정 필요)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미진행</t>
+(화면 구현 완료)
+(관리자 전용 X)
+(기능 X)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2567,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2579,7 +2584,7 @@
     <col min="4" max="4" width="80.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -2628,7 +2633,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2663,13 +2668,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="115.5">
@@ -2729,7 +2734,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -2749,7 +2754,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5">
@@ -2763,13 +2768,13 @@
         <v>69</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -2789,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
@@ -2803,13 +2808,13 @@
         <v>133</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -2823,13 +2828,13 @@
         <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -2849,7 +2854,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2869,7 +2874,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
@@ -2883,13 +2888,13 @@
         <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="115.5">
@@ -2903,13 +2908,13 @@
         <v>80</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
@@ -2923,7 +2928,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -2943,7 +2948,7 @@
         <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -2963,7 +2968,7 @@
         <v>121</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -3003,13 +3008,13 @@
         <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
+      <c r="G21" s="14" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="165">
@@ -3023,13 +3028,13 @@
         <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3063,7 +3068,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>16</v>
@@ -3103,7 +3108,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3123,7 +3128,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
@@ -3143,7 +3148,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -3200,10 +3205,10 @@
         <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
@@ -3223,7 +3228,7 @@
         <v>98</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -3260,10 +3265,10 @@
         <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -3277,13 +3282,13 @@
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -3297,13 +3302,13 @@
         <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -3323,13 +3328,13 @@
         <v>108</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="115.5">
@@ -3340,16 +3345,16 @@
         <v>105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="14" t="s">
-        <v>192</v>
+      <c r="G38" s="13" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="33">
@@ -3357,19 +3362,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3383,7 +3388,7 @@
         <v>107</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -3423,13 +3428,13 @@
         <v>112</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
@@ -3443,13 +3448,13 @@
         <v>135</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3463,13 +3468,13 @@
         <v>114</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3483,13 +3488,13 @@
         <v>116</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3503,7 +3508,7 @@
         <v>117</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -3520,10 +3525,10 @@
         <v>111</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -3534,16 +3539,16 @@
     </row>
     <row r="48" spans="1:7" ht="66">
       <c r="A48" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
@@ -3554,16 +3559,16 @@
     </row>
     <row r="49" spans="1:7" ht="66">
       <c r="A49" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -3574,22 +3579,22 @@
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:7">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -513,36 +513,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-WOMAN, MAN, KIDS 이미지
-- 클릭시 해당 카테고리 목록들이 이미지로 보여진다.
-- 한 화면에 4개의 이미지가 보여진다. (이미지 짤려도 됨)
-- 다음, 이전 버튼 클릭시 4개의 이미지씩 움직인다.
-- 다음, 이전 이미지가 4개보다 적을 경우 처음 이미지 또는 마지막 이미지까지 보여지며, 다음, 이전 이미지가 없을 경우 버튼 숨김</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일입력창과 비밀번호 재설정 버튼으로 구성되어 있다.
 - 이메일형태가 아닐경우 ( " 이메일 주소가 유효하지 않습니다. ")알림
 - 재설정 버튼 클릭시 해당 이메일로 새 비밀번호를 보냄</t>
@@ -1914,43 +1884,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
-- 이미지, 이름, 성별, 카테고리, 사이즈, 가격, 수량은 필수
-- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-0049</t>
   </si>
   <si>
     <t>재고추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품의 사이즈와 수량을 입력하여 해당제품을 업데이트 한다.
-- 관리자는 리스트화면에서 재고추가 버튼을 볼 수 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1985,73 +1922,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품이미지와 이름, 가격으로 구성되어 있다.
-- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성
-- 기본으로 제품번호 오름차순 정렬
-- 같은코드의 제품은 하나만 보여진다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관리자 전용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- 최근에 본 목록이 없다. 
-- 제품등록 버튼이 있다. 
-- 재고추가 버튼이 있다.
-- 남은 수량이 보인다. </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>미진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2074,10 +1944,139 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행중
-(화면 구현 완료)
-(관리자 전용 X)
-(기능 X)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이미지와 이름, 가격으로 구성되어 있다.
+- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성
+- 기본으로 제품번호 내림차순 정렬
+- 같은코드의 제품은 하나만 보여진다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관리자 전용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- 최근에 본 목록이 없다. 
+- 제품등록 버튼이 있다. 
+- 재고추가 버튼이 있다.
+- 남은 수량이 보인다. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료
+(재고추가 X)
+(남은 수량 X)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOMAN, MAN, KIDS 이미지
+- 클릭시 해당 카테고리 목록들이 이미지로 보여진다.
+- 한 화면에 4개의 이미지가 보여진다. (이미지 짤려도 됨)
+- 다음, 이전 버튼 클릭시 4개의 이미지씩 움직인다.
+- 다음, 이전 이미지가 4개보다 적을 경우 처음 이미지 또는 마지막 이미지까지 보여지며, 다음, 이전 이미지가 없을 경우 버튼 숨김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
+- 이미지, 이름, 성별, 카테고리, 가격은 필수
+- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품의 사이즈와 수량을 입력하여 해당제품을 업데이트 한다.
+- 관리자는 리스트화면에서 재고추가 버튼을 볼 수 있다.</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2167,7 +2166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2192,6 +2191,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2207,7 +2212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2251,6 +2256,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2572,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2633,7 +2641,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2647,7 +2655,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
@@ -2668,16 +2676,16 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="115.5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="99">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2687,8 +2695,8 @@
       <c r="C5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>125</v>
+      <c r="D5" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -2734,7 +2742,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -2754,7 +2762,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5">
@@ -2768,13 +2776,13 @@
         <v>69</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -2788,13 +2796,13 @@
         <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
@@ -2805,16 +2813,16 @@
         <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -2828,13 +2836,13 @@
         <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -2848,13 +2856,13 @@
         <v>74</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2874,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
@@ -2888,13 +2896,13 @@
         <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="115.5">
@@ -2908,13 +2916,13 @@
         <v>80</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
@@ -2928,7 +2936,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -2948,7 +2956,7 @@
         <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -2968,7 +2976,7 @@
         <v>121</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -2985,16 +2993,16 @@
         <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
+      <c r="G20" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
@@ -3008,13 +3016,13 @@
         <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="165">
@@ -3028,13 +3036,13 @@
         <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>194</v>
+      <c r="G22" s="15" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3048,7 +3056,7 @@
         <v>86</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
@@ -3059,7 +3067,7 @@
     </row>
     <row r="24" spans="1:7" ht="132">
       <c r="A24" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>85</v>
@@ -3068,7 +3076,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>16</v>
@@ -3088,7 +3096,7 @@
         <v>88</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
@@ -3108,7 +3116,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3128,7 +3136,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
@@ -3148,7 +3156,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -3168,7 +3176,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
@@ -3188,7 +3196,7 @@
         <v>99</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -3205,10 +3213,10 @@
         <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
@@ -3228,7 +3236,7 @@
         <v>98</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -3265,10 +3273,10 @@
         <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -3282,13 +3290,13 @@
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -3302,13 +3310,13 @@
         <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -3328,13 +3336,13 @@
         <v>108</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="115.5">
@@ -3345,36 +3353,36 @@
         <v>105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="33">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="49.5">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3388,7 +3396,7 @@
         <v>107</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -3428,13 +3436,13 @@
         <v>112</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
@@ -3445,16 +3453,16 @@
         <v>113</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3468,13 +3476,13 @@
         <v>114</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3488,13 +3496,13 @@
         <v>116</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3508,7 +3516,7 @@
         <v>117</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -3525,10 +3533,10 @@
         <v>111</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -3539,16 +3547,16 @@
     </row>
     <row r="48" spans="1:7" ht="66">
       <c r="A48" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
@@ -3559,16 +3567,16 @@
     </row>
     <row r="49" spans="1:7" ht="66">
       <c r="A49" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -3579,22 +3587,22 @@
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:7">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="197">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -543,36 +543,6 @@
 로그아웃 기능 
 - 자동로그인 기능해제
 - 로그아웃을 하면 로그인페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-페이지네이션은 10개씩 보여진다.
-- 이전, 다음 클릭시 한페이지씩 이동한다.
-- 페이지를 선택하면 해당페이지로 이동한다.
-- 총 제품의 수의 마지막페이지까지 표시된다.
-- 이전, 다음 페이지가 없을 경우 이전, 다음 버튼을 숨김</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1664,11 +1634,6 @@
   </si>
   <si>
     <t>진행중
-(기능 남음)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중
 (틀만 잡음)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1930,153 +1895,207 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>진행중
+(화면 구현 완료)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이미지와 이름, 가격으로 구성되어 있다.
+- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성
+- 기본으로 제품번호 내림차순 정렬
+- 같은코드의 제품은 하나만 보여진다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관리자 전용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- 최근에 본 목록이 없다. 
+- 제품등록 버튼이 있다. 
+- 재고추가 버튼이 있다.
+- 남은 수량이 보인다. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료
+(재고추가 X)
+(남은 수량 X)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOMAN, MAN, KIDS 이미지
+- 클릭시 해당 카테고리 목록들이 이미지로 보여진다.
+- 한 화면에 4개의 이미지가 보여진다. (이미지 짤려도 됨)
+- 다음, 이전 버튼 클릭시 4개의 이미지씩 움직인다.
+- 다음, 이전 이미지가 4개보다 적을 경우 처음 이미지 또는 마지막 이미지까지 보여지며, 다음, 이전 이미지가 없을 경우 버튼 숨김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
+- 이미지, 이름, 성별, 카테고리, 가격은 필수
+- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품의 사이즈와 수량을 입력하여 해당제품을 업데이트 한다.
+- 관리자는 리스트화면에서 재고추가 버튼을 볼 수 있다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이전, 다음 버튼과 페이지 선택박스로 구성된다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 이전, 다음 클릭시 한페이지씩 이동한다.
+- 페이지를 선택하면 해당페이지로 이동한다.
+- 총 제품의 수의 마지막페이지까지 표시된다.
+- 이전, 다음 페이지가 없을 경우 이전, 다음 버튼을 숨김</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중
+(검색, 로그인표시, 관리자페이지, 마이페이지 완료)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료
+(옵션 선택했을 때 수정 필요)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>성별, 카테고리, 소분류, 크기, 신상품, 가격, 정렬기준, 모두지우기로 구성된다.
 - 선택한 분류와 옵션으로 검색하여 리스트를 보여준다.
 - 가격은 최소가격, 최대가격으로 구성
 - 정렬기준은 가격낮은순, 가격높은순, 최근, 인기상품으로 구성
 - 모두지우기 버튼으로 선택된 카테고리를 모두 초기화 할 수있다.
 - 신상품은 제품의 등록일로 부터 1달이 지나면 해당안됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중
-(화면 구현 완료)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품이미지와 이름, 가격으로 구성되어 있다.
-- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성
-- 기본으로 제품번호 내림차순 정렬
-- 같은코드의 제품은 하나만 보여진다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관리자 전용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- 최근에 본 목록이 없다. 
-- 제품등록 버튼이 있다. 
-- 재고추가 버튼이 있다.
-- 남은 수량이 보인다. </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료
-(재고추가 X)
-(남은 수량 X)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WOMAN, MAN, KIDS 이미지
-- 클릭시 해당 카테고리 목록들이 이미지로 보여진다.
-- 한 화면에 4개의 이미지가 보여진다. (이미지 짤려도 됨)
-- 다음, 이전 버튼 클릭시 4개의 이미지씩 움직인다.
-- 다음, 이전 이미지가 4개보다 적을 경우 처음 이미지 또는 마지막 이미지까지 보여지며, 다음, 이전 이미지가 없을 경우 버튼 숨김</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
-- 이미지, 이름, 성별, 카테고리, 가격은 필수
-- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품의 사이즈와 수량을 입력하여 해당제품을 업데이트 한다.
-- 관리자는 리스트화면에서 재고추가 버튼을 볼 수 있다.</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2580,8 +2599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2641,7 +2660,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2655,7 +2674,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
@@ -2676,13 +2695,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="99">
@@ -2696,7 +2715,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -2742,7 +2761,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -2762,7 +2781,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5">
@@ -2776,13 +2795,13 @@
         <v>69</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -2802,7 +2821,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
@@ -2813,16 +2832,16 @@
         <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -2836,13 +2855,13 @@
         <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -2862,7 +2881,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2882,7 +2901,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
@@ -2896,13 +2915,13 @@
         <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="115.5">
@@ -2916,13 +2935,13 @@
         <v>80</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
@@ -2936,7 +2955,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -2956,7 +2975,7 @@
         <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -2976,7 +2995,7 @@
         <v>121</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -2993,16 +3012,16 @@
         <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>189</v>
+      <c r="G20" s="13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
@@ -3016,13 +3035,13 @@
         <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="165">
@@ -3036,13 +3055,13 @@
         <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3056,18 +3075,18 @@
         <v>86</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
+      <c r="G23" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
       <c r="A24" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>85</v>
@@ -3076,7 +3095,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>16</v>
@@ -3096,7 +3115,7 @@
         <v>88</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
@@ -3116,7 +3135,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3136,7 +3155,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
@@ -3156,7 +3175,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -3176,7 +3195,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
@@ -3196,7 +3215,7 @@
         <v>99</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -3213,10 +3232,10 @@
         <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
@@ -3236,7 +3255,7 @@
         <v>98</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -3273,10 +3292,10 @@
         <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -3290,13 +3309,13 @@
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -3310,13 +3329,13 @@
         <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -3336,13 +3355,13 @@
         <v>108</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="115.5">
@@ -3353,16 +3372,16 @@
         <v>105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="49.5">
@@ -3370,19 +3389,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3396,7 +3415,7 @@
         <v>107</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -3436,13 +3455,13 @@
         <v>112</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
@@ -3453,16 +3472,16 @@
         <v>113</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3476,13 +3495,13 @@
         <v>114</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3496,13 +3515,13 @@
         <v>116</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3516,7 +3535,7 @@
         <v>117</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -3533,10 +3552,10 @@
         <v>111</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -3547,16 +3566,16 @@
     </row>
     <row r="48" spans="1:7" ht="66">
       <c r="A48" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
@@ -3567,16 +3586,16 @@
     </row>
     <row r="49" spans="1:7" ht="66">
       <c r="A49" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -3587,22 +3606,22 @@
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:7">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="198">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -1895,11 +1895,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행중
-(화면 구현 완료)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1967,12 +1962,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>완료
-(재고추가 X)
-(남은 수량 X)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>WOMAN, MAN, KIDS 이미지
 - 클릭시 해당 카테고리 목록들이 이미지로 보여진다.
 - 한 화면에 4개의 이미지가 보여진다. (이미지 짤려도 됨)
@@ -2077,16 +2066,6 @@
   </si>
   <si>
     <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중
-(검색, 로그인표시, 관리자페이지, 마이페이지 완료)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료
-(옵션 선택했을 때 수정 필요)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2096,6 +2075,55 @@
 - 정렬기준은 가격낮은순, 가격높은순, 최근, 인기상품으로 구성
 - 모두지우기 버튼으로 선택된 카테고리를 모두 초기화 할 수있다.
 - 신상품은 제품의 등록일로 부터 1달이 지나면 해당안됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">완료
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(인기순 작업필요)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중
+(찜목록, 장바구니남음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(재고추가 필요)</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2185,7 +2213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2210,12 +2238,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2231,7 +2253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2275,9 +2297,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2599,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2660,7 +2679,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2715,7 +2734,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -3021,7 +3040,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
@@ -3035,13 +3054,13 @@
         <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>186</v>
+      <c r="G21" s="13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="165">
@@ -3055,13 +3074,13 @@
         <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>188</v>
+      <c r="G22" s="13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3075,13 +3094,13 @@
         <v>86</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
@@ -3395,7 +3414,7 @@
         <v>182</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
@@ -3415,7 +3434,7 @@
         <v>107</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -3580,8 +3599,8 @@
       <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="12" t="s">
-        <v>8</v>
+      <c r="G48" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="66">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="197">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -1887,10 +1887,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2109,21 +2105,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>완료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-(재고추가 필요)</t>
-    </r>
+    <t>완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2618,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2679,7 +2661,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2734,7 +2716,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -3040,7 +3022,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
@@ -3054,13 +3036,13 @@
         <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="165">
@@ -3074,13 +3056,13 @@
         <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3094,13 +3076,13 @@
         <v>86</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
@@ -3400,7 +3382,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="49.5">
@@ -3414,13 +3396,13 @@
         <v>182</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>184</v>
+      <c r="G39" s="13" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3434,7 +3416,7 @@
         <v>107</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -3600,7 +3582,7 @@
         <v>16</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="66">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="200">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -889,36 +889,6 @@
 - 이미지는 4개까지 보여지며 이전, 다음 버튼 클릭시 4개씩 움직인다. 
 - 이전, 다음 이미지가 없을 경우 처음 또는 마지막 이미지까지 이동하고
  이전, 다음 버튼을 숨긴다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품 설명이 보여진다.
-- 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자로 
- 구성된다.
-- 글과 이미지 가능 
-- 수입자를 제외한 모든 속성 필수입력</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1891,73 +1861,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품이미지와 이름, 가격으로 구성되어 있다.
-- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성
-- 기본으로 제품번호 내림차순 정렬
-- 같은코드의 제품은 하나만 보여진다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관리자 전용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- 최근에 본 목록이 없다. 
-- 제품등록 버튼이 있다. 
-- 재고추가 버튼이 있다.
-- 남은 수량이 보인다. </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>WOMAN, MAN, KIDS 이미지
 - 클릭시 해당 카테고리 목록들이 이미지로 보여진다.
 - 한 화면에 4개의 이미지가 보여진다. (이미지 짤려도 됨)
@@ -2096,16 +1999,139 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>진행중
 (찜목록, 장바구니남음)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이미지와 이름, 가격, 찜하기로 구성되어 있다.
+- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성
+- 기본으로 제품번호 내림차순 정렬
+- 같은코드의 제품은 하나만 보여진다.
+- 찜목록에 있으면 채워진 하트로 변경
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관리자 전용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- 최근에 본 목록이 없다. 
+- 제품등록 버튼이 있다. 
+- 재고추가 버튼이 있다.
+- 남은 수량이 보인다. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">완료
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(찜하기 작업필요)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중
+(화면만 구현)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품 설명이 보여진다.
+- 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자로 
+ 구성된다.</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2600,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2661,7 +2687,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2696,13 +2722,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="99">
@@ -2716,7 +2742,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -2762,7 +2788,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -2782,7 +2808,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5">
@@ -2796,13 +2822,13 @@
         <v>69</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -2822,7 +2848,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
@@ -2836,13 +2862,13 @@
         <v>131</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>169</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -2862,7 +2888,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -2882,7 +2908,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2902,7 +2928,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
@@ -2916,13 +2942,13 @@
         <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="115.5">
@@ -2936,13 +2962,13 @@
         <v>80</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
@@ -2956,7 +2982,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -2976,7 +3002,7 @@
         <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -2996,7 +3022,7 @@
         <v>121</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -3022,7 +3048,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
@@ -3036,16 +3062,16 @@
         <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="165">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="181.5">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -3056,13 +3082,13 @@
         <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3076,13 +3102,13 @@
         <v>86</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
@@ -3121,8 +3147,8 @@
       <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
+      <c r="G25" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="82.5">
@@ -3136,13 +3162,13 @@
         <v>91</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
+      <c r="G26" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="99">
@@ -3161,11 +3187,11 @@
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="99">
+      <c r="G27" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="66">
       <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
@@ -3176,13 +3202,13 @@
         <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
+      <c r="G28" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="49.5">
@@ -3241,8 +3267,8 @@
       <c r="F31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>8</v>
+      <c r="G31" s="14" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="66">
@@ -3256,7 +3282,7 @@
         <v>98</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -3356,13 +3382,13 @@
         <v>108</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="115.5">
@@ -3376,13 +3402,13 @@
         <v>145</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="49.5">
@@ -3390,19 +3416,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3416,7 +3442,7 @@
         <v>107</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -3456,13 +3482,13 @@
         <v>112</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
@@ -3476,13 +3502,13 @@
         <v>133</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3502,7 +3528,7 @@
         <v>16</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3522,7 +3548,7 @@
         <v>16</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3536,7 +3562,7 @@
         <v>117</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -3556,7 +3582,7 @@
         <v>137</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -3567,36 +3593,36 @@
     </row>
     <row r="48" spans="1:7" ht="66">
       <c r="A48" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="66">
       <c r="A49" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -3607,22 +3633,22 @@
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:7">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="203">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -1022,22 +1022,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+    <t>RQ-0048</t>
+  </si>
+  <si>
+    <t>주문리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
@@ -1057,33 +1065,13 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 배송상태, 주문일, 이름, 전화번호, 주소, 우편번호, 상세주소로 구성
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 사이즈, 수량으로 구성
 </t>
     </r>
     <r>
@@ -1095,13 +1083,14 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- PK, AI : 주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+      <t>- PK, AI : 옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
@@ -1117,107 +1106,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- FK : 제품번호, 이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 주문번호, 제품번호, 이메일, 배송상태, 주문일, 주문수량, 우편번호
-- 기본키 : 배송상태 = 주문완료, 주문일 = now()</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0048</t>
-  </si>
-  <si>
-    <t>주문리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>옵션번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 사이즈, 수량으로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 옵션번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>- FK : 제품번호</t>
     </r>
     <r>
@@ -1231,122 +1119,6 @@
       </rPr>
       <t xml:space="preserve">
 - NOTNULL : 옵션번호, 제품번호, 사이즈, 수량</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문리스트번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 총가격, 주문수량으로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- PK, AI : 주문리스트번호 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 제품번호, 주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 주문리스트번호, 제품번호, 주문번호, 총가격, 주문수량</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1885,34 +1657,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
-- 이미지, 이름, 성별, 카테고리, 가격은 필수
-- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2102,11 +1846,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행중
-(화면만 구현)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2132,6 +1871,260 @@
 - 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자로 
  구성된다.</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문리스트번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 총가격, 주문수량, 주문상태로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- PK, AI : 주문리스트번호 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 제품번호, 주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 주문리스트번호, 제품번호, 주문번호, 총가격, 주문수량, 주문상태
+- 기본키 : 배송상태 = 주문완료</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
+- 이미지, 이름, 성별, 카테고리, 가격은 필수
+- 수정이 완료되면 알림을 띄우고 제품상세화면 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 주문일, 이름, 전화번호, 주소, 우편번호, 상세주소로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 주문번호, 제품번호, 이메일, 주문일, 주문수량, 우편번호
+- 기본키 : 주문일 = now()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중
+(화면 구현 완료)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중
+(화면 구현 완료)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2626,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2687,7 +2680,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2707,8 +2700,8 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
+      <c r="G3" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2722,13 +2715,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="99">
@@ -2742,7 +2735,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -2788,7 +2781,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -2808,7 +2801,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5">
@@ -2822,13 +2815,13 @@
         <v>69</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -2848,7 +2841,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
@@ -2862,13 +2855,13 @@
         <v>131</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -2888,7 +2881,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -2908,7 +2901,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2928,7 +2921,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
@@ -2942,13 +2935,13 @@
         <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="115.5">
@@ -2962,13 +2955,13 @@
         <v>80</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
@@ -3048,7 +3041,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
@@ -3062,13 +3055,13 @@
         <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="181.5">
@@ -3082,13 +3075,13 @@
         <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3102,13 +3095,13 @@
         <v>86</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
@@ -3148,7 +3141,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="82.5">
@@ -3168,7 +3161,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="99">
@@ -3188,7 +3181,7 @@
         <v>16</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66">
@@ -3202,13 +3195,13 @@
         <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="49.5">
@@ -3267,8 +3260,8 @@
       <c r="F31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>198</v>
+      <c r="G31" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="66">
@@ -3382,13 +3375,13 @@
         <v>108</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="115.5">
@@ -3402,13 +3395,13 @@
         <v>145</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="49.5">
@@ -3416,19 +3409,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3442,13 +3435,13 @@
         <v>107</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>8</v>
+      <c r="G40" s="13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="49.5">
@@ -3488,7 +3481,7 @@
         <v>16</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
@@ -3502,13 +3495,13 @@
         <v>133</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3528,7 +3521,7 @@
         <v>16</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3548,7 +3541,7 @@
         <v>16</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3562,7 +3555,7 @@
         <v>117</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -3582,7 +3575,7 @@
         <v>137</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -3602,27 +3595,27 @@
         <v>156</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="66">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="82.5">
       <c r="A49" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -3633,22 +3626,22 @@
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:7">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="204">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -2119,12 +2119,29 @@
   </si>
   <si>
     <t>진행중
-(화면 구현 완료)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중
-(화면 구현 완료)</t>
+(버튼만 만듬)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">완료
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(인기상품 필요)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2619,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2700,8 +2717,8 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>201</v>
+      <c r="G3" s="13" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2740,8 +2757,8 @@
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
+      <c r="G5" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66">
@@ -3181,7 +3198,7 @@
         <v>16</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="205">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -210,17 +210,6 @@
   </si>
   <si>
     <t xml:space="preserve">중단 화면 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신상품 (신발)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 화면에 6개의 신상품 신발의 이미지와 가격, 이름을 나타낸다.
-- 이미지들 위에 전체보기 버튼이 있다. (클릭시 신상품인 모든 제품 검색한다.)
-- 총 12개의 신상품 신발제품이 있다.
-- 이전, 다음 버튼 클릭시 6개의 이미지가 움직이며 이전, 다음이 없을 경우 버튼 숨김</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2138,6 +2127,21 @@
       </rPr>
       <t>(인기상품 필요)</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 화면에 5개의 신상품의 이미지와 가격, 이름을 나타낸다.
+- 이미지들 위에 전체보기 버튼이 있다. (클릭시 신상품인 모든 제품 검색한다.)
+- 총 10개의 신상품 제품이 있다.
+- 이전, 다음 버튼 클릭시 5개의 이미지가 움직이며 이전, 다음이 없을 경우 버튼 숨김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신상품</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2636,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2690,14 +2694,14 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2711,14 +2715,14 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2732,13 +2736,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="99">
@@ -2752,13 +2756,13 @@
         <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>203</v>
+      <c r="G5" s="13" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66">
@@ -2769,16 +2773,16 @@
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
+      <c r="G6" s="14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2789,16 +2793,16 @@
         <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -2806,19 +2810,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5">
@@ -2826,19 +2830,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -2846,19 +2850,19 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
@@ -2866,19 +2870,19 @@
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -2886,19 +2890,19 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -2906,19 +2910,19 @@
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2926,19 +2930,19 @@
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
@@ -2946,19 +2950,19 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="115.5">
@@ -2966,19 +2970,19 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
@@ -2986,13 +2990,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -3006,13 +3010,13 @@
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -3026,13 +3030,13 @@
         <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -3046,19 +3050,19 @@
         <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
@@ -3066,19 +3070,19 @@
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="181.5">
@@ -3086,19 +3090,19 @@
         <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3106,33 +3110,33 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
       <c r="A24" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>16</v>
@@ -3146,19 +3150,19 @@
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="82.5">
@@ -3166,19 +3170,19 @@
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="99">
@@ -3186,19 +3190,19 @@
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66">
@@ -3206,19 +3210,19 @@
         <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="49.5">
@@ -3226,13 +3230,13 @@
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
@@ -3246,13 +3250,13 @@
         <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D30" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -3266,19 +3270,19 @@
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="66">
@@ -3286,13 +3290,13 @@
         <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -3306,13 +3310,13 @@
         <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>16</v>
@@ -3326,13 +3330,13 @@
         <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -3346,13 +3350,13 @@
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -3366,13 +3370,13 @@
         <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -3386,19 +3390,19 @@
         <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="115.5">
@@ -3406,19 +3410,19 @@
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="49.5">
@@ -3426,19 +3430,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3446,19 +3450,19 @@
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="49.5">
@@ -3466,13 +3470,13 @@
         <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>16</v>
@@ -3486,19 +3490,19 @@
         <v>52</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
@@ -3506,19 +3510,19 @@
         <v>53</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3526,19 +3530,19 @@
         <v>54</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3546,19 +3550,19 @@
         <v>55</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3566,13 +3570,13 @@
         <v>56</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -3586,13 +3590,13 @@
         <v>57</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -3603,36 +3607,36 @@
     </row>
     <row r="48" spans="1:7" ht="66">
       <c r="A48" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="82.5">
       <c r="A49" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -3643,22 +3647,22 @@
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:7">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -1112,97 +1112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>내목록번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 선택수량, 목록상태, 선택상태로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 내목록번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 내목록번호, 이메일, 제품번호, 선택수량, 목록상태(찜, 장바구니), 선택상태
-- 기본키 : 수량 = 0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일인증</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1872,123 +1781,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>주문리스트번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 총가격, 주문수량, 주문상태로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- PK, AI : 주문리스트번호 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 제품번호, 주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 주문리스트번호, 제품번호, 주문번호, 총가격, 주문수량, 주문상태
-- 기본키 : 배송상태 = 주문완료</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> * 필수 구현</t>
     </r>
     <r>
@@ -2145,7 +1937,250 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
+    <r>
+      <t xml:space="preserve">완료
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(찜기능 필요)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문리스트번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 총가격, 주문수량, 주문상태로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- PK, AI : 주문리스트번호 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 옵션번호, 주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 주문리스트번호, 제품번호, 주문번호, 총가격, 주문수량, 주문상태
+- 기본키 : 배송상태 = 주문완료</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 선택수량, 목록상태로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 이메일, 옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 내목록번호, 이메일, 옵션번호, 선택수량, 목록상태(찜, 장바구니)
+- 기본키 : 수량 = 0</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2640,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2701,7 +2736,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2722,7 +2757,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2736,13 +2771,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="99">
@@ -2756,13 +2791,13 @@
         <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66">
@@ -2773,16 +2808,16 @@
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2802,7 +2837,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -2822,7 +2857,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5">
@@ -2836,13 +2871,13 @@
         <v>67</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -2862,7 +2897,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
@@ -2876,13 +2911,13 @@
         <v>129</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -2902,7 +2937,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -2922,7 +2957,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2942,7 +2977,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
@@ -2956,13 +2991,13 @@
         <v>79</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="115.5">
@@ -2976,13 +3011,13 @@
         <v>78</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
@@ -3062,7 +3097,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
@@ -3076,13 +3111,13 @@
         <v>88</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="181.5">
@@ -3096,13 +3131,13 @@
         <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3116,13 +3151,13 @@
         <v>84</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
@@ -3162,7 +3197,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="82.5">
@@ -3182,7 +3217,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="99">
@@ -3202,7 +3237,7 @@
         <v>16</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66">
@@ -3216,13 +3251,13 @@
         <v>91</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="49.5">
@@ -3282,7 +3317,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="66">
@@ -3396,13 +3431,13 @@
         <v>106</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="115.5">
@@ -3416,13 +3451,13 @@
         <v>143</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>178</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="49.5">
@@ -3430,19 +3465,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3456,13 +3491,13 @@
         <v>105</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="49.5">
@@ -3502,7 +3537,7 @@
         <v>16</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
@@ -3516,13 +3551,13 @@
         <v>131</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3542,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3562,7 +3597,7 @@
         <v>16</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3576,7 +3611,7 @@
         <v>115</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -3596,7 +3631,7 @@
         <v>135</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -3622,7 +3657,7 @@
         <v>16</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="82.5">
@@ -3636,7 +3671,7 @@
         <v>157</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -3647,22 +3682,22 @@
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:7">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="207">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -2181,6 +2181,14 @@
 - NOTNULL : 내목록번호, 이메일, 옵션번호, 선택수량, 목록상태(찜, 장바구니)
 - 기본키 : 수량 = 0</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2675,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3336,8 +3344,8 @@
       <c r="F32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>8</v>
+      <c r="G32" s="14" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3356,8 +3364,8 @@
       <c r="F33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>8</v>
+      <c r="G33" s="14" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="49.5">
@@ -3376,8 +3384,8 @@
       <c r="F34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>8</v>
+      <c r="G34" s="14" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="33">
@@ -3616,8 +3624,8 @@
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="12" t="s">
-        <v>8</v>
+      <c r="G46" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="82.5">
@@ -3676,8 +3684,8 @@
       <c r="F49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="12" t="s">
-        <v>8</v>
+      <c r="G49" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="49.5">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="210">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -2180,6 +2180,32 @@
       <t xml:space="preserve">
 - NOTNULL : 내목록번호, 이메일, 옵션번호, 선택수량, 목록상태(찜, 장바구니)
 - 기본키 : 수량 = 0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">완료
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(장바구니 설정 후 수정)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2683,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3344,11 +3370,11 @@
       <c r="F32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="49.5">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -3364,8 +3390,8 @@
       <c r="F33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="14" t="s">
-        <v>206</v>
+      <c r="G33" s="13" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="49.5">
@@ -3384,7 +3410,7 @@
       <c r="F34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="13" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3404,8 +3430,8 @@
       <c r="F35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>8</v>
+      <c r="G35" s="13" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="49.5">
@@ -3424,8 +3450,8 @@
       <c r="F36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>8</v>
+      <c r="G36" s="14" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="49.5">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="209">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -1619,24 +1619,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">완료
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(인기순 작업필요)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1904,24 +1886,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">완료
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(인기상품 필요)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2214,7 +2178,25 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">완료
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(페이지네이션 추가 필요)</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2709,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2770,7 +2752,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2791,7 +2773,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2831,7 +2813,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66">
@@ -2842,16 +2824,16 @@
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3151,7 +3133,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="181.5">
@@ -3165,13 +3147,13 @@
         <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3191,7 +3173,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
@@ -3231,7 +3213,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="82.5">
@@ -3251,7 +3233,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="99">
@@ -3271,7 +3253,7 @@
         <v>16</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66">
@@ -3285,13 +3267,13 @@
         <v>91</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="49.5">
@@ -3351,7 +3333,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="66">
@@ -3371,7 +3353,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="49.5">
@@ -3391,7 +3373,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="49.5">
@@ -3411,7 +3393,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="33">
@@ -3431,7 +3413,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="49.5">
@@ -3450,8 +3432,8 @@
       <c r="F36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="14" t="s">
-        <v>209</v>
+      <c r="G36" s="13" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="49.5">
@@ -3511,7 +3493,7 @@
         <v>16</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3525,13 +3507,13 @@
         <v>105</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="49.5">
@@ -3550,8 +3532,8 @@
       <c r="F41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>8</v>
+      <c r="G41" s="13" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="66">
@@ -3645,13 +3627,13 @@
         <v>115</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="82.5">
@@ -3665,7 +3647,7 @@
         <v>135</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -3691,7 +3673,7 @@
         <v>16</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="82.5">
@@ -3705,13 +3687,13 @@
         <v>157</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="49.5">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="210">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -1610,21 +1610,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>성별, 카테고리, 소분류, 크기, 신상품, 가격, 정렬기준, 모두지우기로 구성된다.
-- 선택한 분류와 옵션으로 검색하여 리스트를 보여준다.
-- 가격은 최소가격, 최대가격으로 구성
-- 정렬기준은 가격낮은순, 가격높은순, 최근, 인기상품으로 구성
-- 모두지우기 버튼으로 선택된 카테고리를 모두 초기화 할 수있다.
-- 신상품은 제품의 등록일로 부터 1달이 지나면 해당안됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중
-(찜목록, 장바구니남음)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2196,6 +2182,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>(페이지네이션 추가 필요)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별, 카테고리, 소분류, 크기, 신상품, 가격, 정렬기준, 모두지우기로 구성된다.
+- 선택한 분류와 옵션으로 검색하여 리스트를 보여준다.
+- 가격은 최소가격, 최대가격으로 구성
+- 정렬기준은 가격낮은순, 가격높은순, 최근, 인기순으로 구성
+- 모두지우기 버튼으로 선택된 카테고리를 모두 초기화 할 수있다.
+- 신상품은 제품의 등록일로 부터 1달이 지나면 해당안됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">완료
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(찜목록, 장바구니필요)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2691,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2751,8 +2768,8 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>185</v>
+      <c r="G2" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2773,7 +2790,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2813,7 +2830,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66">
@@ -2824,16 +2841,16 @@
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3127,13 +3144,13 @@
         <v>88</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="181.5">
@@ -3147,13 +3164,13 @@
         <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>188</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3173,7 +3190,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
@@ -3213,7 +3230,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="82.5">
@@ -3233,7 +3250,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="99">
@@ -3253,7 +3270,7 @@
         <v>16</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66">
@@ -3267,13 +3284,13 @@
         <v>91</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="49.5">
@@ -3333,7 +3350,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="66">
@@ -3353,7 +3370,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="49.5">
@@ -3373,7 +3390,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="49.5">
@@ -3393,7 +3410,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="33">
@@ -3413,7 +3430,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="49.5">
@@ -3433,7 +3450,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="49.5">
@@ -3493,7 +3510,7 @@
         <v>16</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3507,13 +3524,13 @@
         <v>105</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="49.5">
@@ -3533,7 +3550,7 @@
         <v>16</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="66">
@@ -3627,13 +3644,13 @@
         <v>115</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="82.5">
@@ -3647,13 +3664,13 @@
         <v>135</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="12" t="s">
-        <v>8</v>
+      <c r="G47" s="13" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66">
@@ -3673,7 +3690,7 @@
         <v>16</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="82.5">
@@ -3687,13 +3704,13 @@
         <v>157</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="49.5">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="213">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -1113,55 +1113,6 @@
   </si>
   <si>
     <t>이메일인증</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 이메일, 인증번호
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 이메일번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 이메일, 인증번호</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1695,24 +1646,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">완료
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(찜하기 작업필요)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -1867,11 +1800,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행중
-(버튼만 만듬)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1888,24 +1816,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">완료
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(찜기능 필요)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -2018,118 +1928,6 @@
       <t xml:space="preserve">
 - NOTNULL : 주문리스트번호, 제품번호, 주문번호, 총가격, 주문수량, 주문상태
 - 기본키 : 배송상태 = 주문완료</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>내목록번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>옵션번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 선택수량, 목록상태로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 내목록번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 이메일, 옵션번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 내목록번호, 이메일, 옵션번호, 선택수량, 목록상태(찜, 장바구니)
-- 기본키 : 수량 = 0</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2200,6 +1998,290 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 선택수량으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 이메일, 옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 내목록번호, 이메일, 옵션번호, 선택수량
+- 기본키 : 수량 = 0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0050</t>
+  </si>
+  <si>
+    <t>찜목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 이메일, 인증번호로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 이메일번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 이메일, 인증번호</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>찜목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 찜상태로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 찜목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 이메일, 제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 찜목록번호, 이메일, 제품번호, 찜상태</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">완료
 </t>
     </r>
@@ -2212,7 +2294,33 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(찜목록, 장바구니필요)</t>
+      <t>(장바구니필요)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">완료
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(장바구니 필요)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2343,7 +2451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2388,6 +2496,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2708,8 +2819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2790,7 +2901,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2804,13 +2915,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="99">
@@ -2824,13 +2935,13 @@
         <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66">
@@ -2841,16 +2952,16 @@
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2870,7 +2981,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -2890,7 +3001,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5">
@@ -2904,13 +3015,13 @@
         <v>67</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -2930,7 +3041,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
@@ -2944,13 +3055,13 @@
         <v>129</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -2970,7 +3081,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -2990,7 +3101,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3010,7 +3121,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
@@ -3024,13 +3135,13 @@
         <v>79</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="115.5">
@@ -3044,13 +3155,13 @@
         <v>78</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
@@ -3069,8 +3180,8 @@
       <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
+      <c r="G17" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="82.5">
@@ -3130,7 +3241,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
@@ -3144,13 +3255,13 @@
         <v>88</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="181.5">
@@ -3164,13 +3275,13 @@
         <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3184,13 +3295,13 @@
         <v>84</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
@@ -3230,7 +3341,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="82.5">
@@ -3250,7 +3361,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="99">
@@ -3269,8 +3380,8 @@
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>194</v>
+      <c r="G27" s="13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66">
@@ -3284,13 +3395,13 @@
         <v>91</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="49.5">
@@ -3350,7 +3461,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="66">
@@ -3370,7 +3481,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="49.5">
@@ -3390,7 +3501,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="49.5">
@@ -3410,7 +3521,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="33">
@@ -3430,7 +3541,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="49.5">
@@ -3450,7 +3561,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="49.5">
@@ -3464,13 +3575,13 @@
         <v>106</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="115.5">
@@ -3484,13 +3595,13 @@
         <v>143</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="49.5">
@@ -3498,19 +3609,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3524,13 +3635,13 @@
         <v>105</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="49.5">
@@ -3550,7 +3661,7 @@
         <v>16</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="66">
@@ -3570,7 +3681,7 @@
         <v>16</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
@@ -3584,13 +3695,13 @@
         <v>131</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3610,7 +3721,7 @@
         <v>16</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3630,7 +3741,7 @@
         <v>16</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3644,13 +3755,13 @@
         <v>115</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="82.5">
@@ -3664,13 +3775,13 @@
         <v>135</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66">
@@ -3690,7 +3801,7 @@
         <v>16</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="82.5">
@@ -3704,18 +3815,18 @@
         <v>157</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>109</v>
@@ -3724,17 +3835,34 @@
         <v>159</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="66">
+      <c r="A51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:7">
       <c r="D52" s="2"/>

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="212">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -846,33 +846,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- 배송지가 입력이 안되어 있으면 안된 곳으로 focus되고 전송안됨
-- 구매가 완료되면 주문내역 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장바구니의 추가한 제품의 이미지와 나의 장바구니 보기 버튼으로 구성되어있다.
 - 나의 장바구니 보기 버튼, 이미지 클릭시 장바구니 화면으로 이동
 - 이미지는 4개까지 보여지며 이전, 다음 버튼 클릭시 4개씩 움직인다. 
@@ -919,14 +892,6 @@
 - 배송지는 이름, 주소, 전화번호로 구성
 - 모두 필수입력
 - 기존 배송지 사용을 선택하면 해당회원의 정보를 쓴다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 있는 제품의 이미지와 이름, 가격, 사이즈, 색상, 수량으로 구성
-- 수량은 변경 가능
-- 같은제품을 또 장바구니에 담으면 수량이 늘어난다.
-- 체크박스로 장바구니의 제품을 선택할 수 있다. 
-- 기본으로 모두 체크되어 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1940,28 +1905,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">완료
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(장바구니 설정 후 수정)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2281,6 +2224,56 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 있는 제품의 이미지와 이름, 가격, 사이즈, 색상, 수량으로 구성
+- 수량은 변경 가능
+- 같은제품을 또 장바구니에 담으면 수량이 늘어난다.
+- 취소 버튼을 누르면 장바구니에서 삭제된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 배송지가 입력이 안되어 있으면 안된 곳으로 focus되고 전송안됨
+- 구매가 완료되면 주문조회 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">완료
 </t>
@@ -2294,33 +2287,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(장바구니필요)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">완료
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(장바구니 필요)</t>
+      <t>(페이지네이션 추가 필요)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2820,7 +2787,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:M5"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2880,7 +2847,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2901,7 +2868,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2915,13 +2882,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="99">
@@ -2935,13 +2902,13 @@
         <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66">
@@ -2952,16 +2919,16 @@
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2981,7 +2948,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -3001,7 +2968,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5">
@@ -3015,13 +2982,13 @@
         <v>67</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -3041,7 +3008,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
@@ -3055,13 +3022,13 @@
         <v>129</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -3075,13 +3042,13 @@
         <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -3101,7 +3068,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3121,7 +3088,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
@@ -3135,13 +3102,13 @@
         <v>79</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="115.5">
@@ -3155,13 +3122,13 @@
         <v>78</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
@@ -3175,16 +3142,16 @@
         <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="82.5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="66">
       <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
@@ -3195,13 +3162,13 @@
         <v>118</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
+      <c r="G18" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="49.5">
@@ -3215,13 +3182,13 @@
         <v>119</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
+      <c r="G19" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33">
@@ -3241,7 +3208,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
@@ -3255,13 +3222,13 @@
         <v>88</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="181.5">
@@ -3275,13 +3242,13 @@
         <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3295,13 +3262,13 @@
         <v>84</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
@@ -3341,7 +3308,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="82.5">
@@ -3355,13 +3322,13 @@
         <v>89</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="99">
@@ -3381,7 +3348,7 @@
         <v>16</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66">
@@ -3395,13 +3362,13 @@
         <v>91</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="49.5">
@@ -3461,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="66">
@@ -3475,16 +3442,16 @@
         <v>96</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="49.5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -3501,7 +3468,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="49.5">
@@ -3515,16 +3482,16 @@
         <v>138</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="33">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="49.5">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -3541,7 +3508,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="49.5">
@@ -3561,7 +3528,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="49.5">
@@ -3575,13 +3542,13 @@
         <v>106</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="115.5">
@@ -3595,13 +3562,13 @@
         <v>143</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="49.5">
@@ -3609,19 +3576,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3635,13 +3602,13 @@
         <v>105</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="49.5">
@@ -3661,7 +3628,7 @@
         <v>16</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="66">
@@ -3675,13 +3642,13 @@
         <v>110</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
@@ -3695,13 +3662,13 @@
         <v>131</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3721,7 +3688,7 @@
         <v>16</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3741,7 +3708,7 @@
         <v>16</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3755,13 +3722,13 @@
         <v>115</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="82.5">
@@ -3775,93 +3742,93 @@
         <v>135</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66">
       <c r="A48" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="82.5">
       <c r="A49" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="66">
       <c r="A51" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:7">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="210">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -1189,11 +1189,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행중
-(틀만 잡음)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1909,24 +1904,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">완료
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(페이지네이션 추가 필요)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>성별, 카테고리, 소분류, 크기, 신상품, 가격, 정렬기준, 모두지우기로 구성된다.
 - 선택한 분류와 옵션으로 검색하여 리스트를 보여준다.
 - 가격은 최소가격, 최대가격으로 구성
@@ -2274,21 +2251,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">완료
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(페이지네이션 추가 필요)</t>
-    </r>
+    <t>완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2378,7 +2341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2397,12 +2360,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2418,7 +2375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2459,9 +2416,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2786,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2847,7 +2801,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -2868,7 +2822,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2902,13 +2856,13 @@
         <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66">
@@ -2919,16 +2873,16 @@
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2988,7 +2942,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
@@ -3047,8 +3001,8 @@
       <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>164</v>
+      <c r="G12" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -3102,7 +3056,7 @@
         <v>79</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
@@ -3122,7 +3076,7 @@
         <v>78</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
@@ -3148,7 +3102,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="66">
@@ -3162,13 +3116,13 @@
         <v>118</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="49.5">
@@ -3188,7 +3142,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33">
@@ -3208,7 +3162,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
@@ -3222,13 +3176,13 @@
         <v>88</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="181.5">
@@ -3242,13 +3196,13 @@
         <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3262,13 +3216,13 @@
         <v>84</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
@@ -3308,7 +3262,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="82.5">
@@ -3328,7 +3282,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="99">
@@ -3348,7 +3302,7 @@
         <v>16</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66">
@@ -3362,13 +3316,13 @@
         <v>91</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="49.5">
@@ -3428,7 +3382,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="66">
@@ -3448,7 +3402,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3468,7 +3422,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="49.5">
@@ -3482,16 +3436,16 @@
         <v>138</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="49.5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="33">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -3508,7 +3462,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="49.5">
@@ -3528,7 +3482,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="49.5">
@@ -3542,13 +3496,13 @@
         <v>106</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="115.5">
@@ -3562,13 +3516,13 @@
         <v>143</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="49.5">
@@ -3576,19 +3530,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3602,13 +3556,13 @@
         <v>105</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="49.5">
@@ -3628,7 +3582,7 @@
         <v>16</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="66">
@@ -3662,13 +3616,13 @@
         <v>131</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3688,7 +3642,7 @@
         <v>16</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3708,7 +3662,7 @@
         <v>16</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3722,13 +3676,13 @@
         <v>115</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="82.5">
@@ -3742,13 +3696,13 @@
         <v>135</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66">
@@ -3768,7 +3722,7 @@
         <v>16</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="82.5">
@@ -3782,18 +3736,18 @@
         <v>155</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>109</v>
@@ -3802,7 +3756,7 @@
         <v>157</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
@@ -3813,16 +3767,16 @@
     </row>
     <row r="51" spans="1:7" ht="66">
       <c r="A51" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>16</v>

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_TN\adidas_store_tn\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="11970" activeTab="1"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="217">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -2254,11 +2259,263 @@
     <t>완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0051</t>
+  </si>
+  <si>
+    <t>RQ-0052</t>
+  </si>
+  <si>
+    <t>리뷰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>리뷰번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 리뷰타이틀, 리뷰내용, 별점, 작성일, 리뷰추천, 리뷰비추천
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 리뷰번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 이메일, 제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 리뷰번호, 이메일, 제품번호, 리뷰타이틀, 리뷰내용, 별점, 작성일
+- 기본키 : 작성일 = now(), 리뷰추천, 리뷰비추천 = 0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추천번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>리뷰번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 추천상태
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 추천번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 리뷰번호, 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 추천번호, 리뷰번호, 이메일, 추천상태
+- 기본키 : 추천상태 = 0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -2481,7 +2738,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2516,7 +2773,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2740,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3361,8 +3618,8 @@
       <c r="F30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>8</v>
+      <c r="G30" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="82.5">
@@ -3785,11 +4042,45 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="D53" s="2"/>
+    <row r="52" spans="1:7" ht="82.5">
+      <c r="A52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="82.5">
+      <c r="A53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="D54" s="2"/>

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_TN\adidas_store_tn\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="11970" activeTab="1"/>
   </bookViews>
@@ -51,9 +46,6 @@
     <t>RQ-0001</t>
   </si>
   <si>
-    <t>미진행</t>
-  </si>
-  <si>
     <t>RQ-0002</t>
   </si>
   <si>
@@ -571,32 +563,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* 우선순위 낮음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-리스트의 최근에 본 제품과 같다.
-- 지금 보고 있는 제품은 보여지지않는다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MEN, WOMAN, KIDS를 마우스호버하면 카테고리와 중분류가 보여진다.
 - 해당 분류를 선택하여 검색한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -619,29 +585,6 @@
   <si>
     <t>검색한 이름이 포함된 제품들을 보여준다.
 - 띄어쓰기도 제대로 맞춰야 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> * 우선순위 낮음
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품이미지와 가격, 이름으로 구성 되어 있다.
-- 한 페이지에 3개씩 보여진다.
-- 이전, 다음 버튼 클릭시 3개씩 이동하고 이전, 다음 이미지가 없으면 
- 처음, 마지막 이미지까지 이동하고 버튼을 숨김
-- 최대 15개 까지 보여진다. 
-- 최근에 본 제품이 맨왼쪽부터 순서대로 진행된다.
-- 이전에 본 제품이 없으면 이부분이 안보이게 숨긴다.</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2511,11 +2454,63 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 우선순위 낮음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+리스트의 최근에 본 제품과 같다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> * 우선순위 낮음
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품이미지와 가격, 이름으로 구성 되어 있다.
+- 한 페이지에 5개씩 보여진다.
+- 이전, 다음 버튼 클릭시 5개씩 이동하고 이전, 다음 이미지가 없으면 
+ 처음, 마지막 이미지까지 이동하고 버튼을 숨김
+- 최대 10개 까지 보여진다. 
+- 최근에 본 제품이 맨왼쪽부터 순서대로 진행된다.
+- 이전에 본 제품이 없으면 이부분이 안보이게 숨긴다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -2738,7 +2733,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2773,7 +2768,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2997,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3025,7 +3020,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -3045,1041 +3040,1041 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="99">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="115.5">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="66">
       <c r="A18" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="49.5">
       <c r="A19" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="181.5">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
       <c r="A24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="33">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="82.5">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="99">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66">
       <c r="A28" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="33">
+      <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="49.5">
-      <c r="A29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D29" s="9" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="82.5">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="66">
       <c r="A32" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="49.5">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="33">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="49.5">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="49.5">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="115.5">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="49.5">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="49.5">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="66">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="D42" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="D44" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="D45" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="82.5">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66">
       <c r="A48" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="82.5">
       <c r="A49" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="66">
       <c r="A51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="82.5">
       <c r="A52" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="82.5">
       <c r="A53" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:7">

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -1234,120 +1234,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 제품이미지, 이름, 성별, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>카테고리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>소분류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 가격, 등록일,
-  타이틀, 내용, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자으로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 카테고리, 소분류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 제품번호, 제품이미지, 이름, 성별, 카테고리, 가격, 등록일,
- 타이틀, 내용, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자
-- 기본키 : 등록일 = now(), 수입자 = 아디다스코리아[유]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-0049</t>
   </si>
   <si>
@@ -2504,6 +2390,120 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 제품이미지, 이름, 성별, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카테고리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 가격, 등록일,
+  타이틀, 내용, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자, 삭제여부로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 카테고리, 소분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 제품번호, 제품이미지, 이름, 성별, 카테고리, 가격, 등록일, 삭제여부
+ 타이틀, 내용, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자
+- 기본키 : 등록일 = now(), 수입자 = 아디다스코리아[유], 삭제여부 = N</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2992,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3053,7 +3053,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -3074,7 +3074,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3108,13 +3108,13 @@
         <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66">
@@ -3125,16 +3125,16 @@
         <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3254,7 +3254,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -3354,7 +3354,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="66">
@@ -3368,13 +3368,13 @@
         <v>117</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="49.5">
@@ -3394,7 +3394,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33">
@@ -3414,7 +3414,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
@@ -3428,13 +3428,13 @@
         <v>87</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="181.5">
@@ -3448,13 +3448,13 @@
         <v>86</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3468,13 +3468,13 @@
         <v>83</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
@@ -3488,13 +3488,13 @@
         <v>84</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="33">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="82.5">
@@ -3534,7 +3534,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="99">
@@ -3554,7 +3554,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66">
@@ -3568,13 +3568,13 @@
         <v>90</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="33">
@@ -3588,13 +3588,13 @@
         <v>91</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3614,7 +3614,7 @@
         <v>15</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="82.5">
@@ -3634,7 +3634,7 @@
         <v>15</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="66">
@@ -3654,7 +3654,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3674,7 +3674,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="49.5">
@@ -3688,13 +3688,13 @@
         <v>135</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="33">
@@ -3714,7 +3714,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="49.5">
@@ -3734,7 +3734,7 @@
         <v>15</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="49.5">
@@ -3768,13 +3768,13 @@
         <v>140</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="49.5">
@@ -3782,19 +3782,19 @@
         <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3808,13 +3808,13 @@
         <v>104</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="49.5">
@@ -3834,7 +3834,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="66">
@@ -3868,7 +3868,7 @@
         <v>129</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>15</v>
@@ -3928,13 +3928,13 @@
         <v>114</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="82.5">
@@ -3948,13 +3948,13 @@
         <v>132</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66">
@@ -3974,7 +3974,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="82.5">
@@ -3988,18 +3988,18 @@
         <v>152</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>108</v>
@@ -4008,7 +4008,7 @@
         <v>154</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>15</v>
@@ -4019,16 +4019,16 @@
     </row>
     <row r="51" spans="1:7" ht="66">
       <c r="A51" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>15</v>
@@ -4039,16 +4039,16 @@
     </row>
     <row r="52" spans="1:7" ht="82.5">
       <c r="A52" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>15</v>
@@ -4059,16 +4059,16 @@
     </row>
     <row r="53" spans="1:7" ht="82.5">
       <c r="A53" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>15</v>

--- a/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -266,10 +266,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>개인정보, 주문조회, 찜목록 으로 구성되어 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>개인정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -454,54 +450,6 @@
   </si>
   <si>
     <t>총 금액이 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-로고, MEN, WOMAN, KIDS, 검색창, 마이페이지, 찜목록, 장바구니, 로그인, 관리자페이지로 구성되어 있다.
-- 로고 클릭시 메인화면으로 이동
-- 로그인시 로그인부분이 안녕하세요! (이름) 으로 바뀐다.
-- 로그인되어 있을 경우 찜목록, 장바구니에 담긴 수 만큼 이미지 위에 표시
-- MEN, WOMAN, KIDS를 마우스호버할 때 해당 카테고리 목록들이 보여진다.
-- 관리자페이지는 관리자만 보여지고 관리자만 사용가능</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일입력창과 비밀번호 재설정 버튼으로 구성되어 있다.
-- 이메일형태가 아닐경우 ( " 이메일 주소가 유효하지 않습니다. ")알림
-- 재설정 버튼 클릭시 해당 이메일로 새 비밀번호를 보냄</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1367,6 +1315,1128 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품 설명이 보여진다.
+- 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자로 
+ 구성된다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
+- 이미지, 이름, 성별, 카테고리, 가격은 필수
+- 수정이 완료되면 알림을 띄우고 제품상세화면 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 주문일, 이름, 전화번호, 주소, 우편번호, 상세주소로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 주문번호, 제품번호, 이메일, 주문일, 주문수량, 우편번호
+- 기본키 : 주문일 = now()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 화면에 5개의 신상품의 이미지와 가격, 이름을 나타낸다.
+- 이미지들 위에 전체보기 버튼이 있다. (클릭시 신상품인 모든 제품 검색한다.)
+- 총 10개의 신상품 제품이 있다.
+- 이전, 다음 버튼 클릭시 5개의 이미지가 움직이며 이전, 다음이 없을 경우 버튼 숨김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신상품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문리스트번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 총가격, 주문수량, 주문상태로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- PK, AI : 주문리스트번호 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 옵션번호, 주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 주문리스트번호, 제품번호, 주문번호, 총가격, 주문수량, 주문상태
+- 기본키 : 배송상태 = 주문완료</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별, 카테고리, 소분류, 크기, 신상품, 가격, 정렬기준, 모두지우기로 구성된다.
+- 선택한 분류와 옵션으로 검색하여 리스트를 보여준다.
+- 가격은 최소가격, 최대가격으로 구성
+- 정렬기준은 가격낮은순, 가격높은순, 최근, 인기순으로 구성
+- 모두지우기 버튼으로 선택된 카테고리를 모두 초기화 할 수있다.
+- 신상품은 제품의 등록일로 부터 1달이 지나면 해당안됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 선택수량으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 이메일, 옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 내목록번호, 이메일, 옵션번호, 선택수량
+- 기본키 : 수량 = 0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0050</t>
+  </si>
+  <si>
+    <t>찜목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 이메일, 인증번호로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 이메일번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 이메일, 인증번호</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>찜목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 찜상태로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 찜목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 이메일, 제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 찜목록번호, 이메일, 제품번호, 찜상태</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 있는 제품의 이미지와 이름, 가격, 사이즈, 색상, 수량으로 구성
+- 수량은 변경 가능
+- 같은제품을 또 장바구니에 담으면 수량이 늘어난다.
+- 취소 버튼을 누르면 장바구니에서 삭제된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 배송지가 입력이 안되어 있으면 안된 곳으로 focus되고 전송안됨
+- 구매가 완료되면 주문조회 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0051</t>
+  </si>
+  <si>
+    <t>RQ-0052</t>
+  </si>
+  <si>
+    <t>리뷰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>리뷰번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 리뷰타이틀, 리뷰내용, 별점, 작성일, 리뷰추천, 리뷰비추천
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 리뷰번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 이메일, 제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 리뷰번호, 이메일, 제품번호, 리뷰타이틀, 리뷰내용, 별점, 작성일
+- 기본키 : 작성일 = now(), 리뷰추천, 리뷰비추천 = 0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추천번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>리뷰번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 추천상태
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 추천번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 리뷰번호, 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 추천번호, 리뷰번호, 이메일, 추천상태
+- 기본키 : 추천상태 = 0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 우선순위 낮음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+리스트의 최근에 본 제품과 같다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> * 우선순위 낮음
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품이미지와 가격, 이름으로 구성 되어 있다.
+- 한 페이지에 5개씩 보여진다.
+- 이전, 다음 버튼 클릭시 5개씩 이동하고 이전, 다음 이미지가 없으면 
+ 처음, 마지막 이미지까지 이동하고 버튼을 숨김
+- 최대 10개 까지 보여진다. 
+- 최근에 본 제품이 맨왼쪽부터 순서대로 진행된다.
+- 이전에 본 제품이 없으면 이부분이 안보이게 숨긴다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 제품이미지, 이름, 성별, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카테고리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 가격, 등록일,
+  타이틀, 내용, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자, 삭제여부로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 카테고리, 소분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 제품번호, 제품이미지, 이름, 성별, 카테고리, 가격, 등록일, 삭제여부
+ 타이틀, 내용, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자
+- 기본키 : 등록일 = now(), 수입자 = 아디다스코리아[유], 삭제여부 = N</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+로고, MEN, WOMAN, KIDS, 검색창, 마이페이지, 찜목록, 장바구니, 로그인, 관리자페이지로 구성되어 있다.
+- 로고 클릭시 메인화면으로 이동
+- 로그인시 로그인부분이 안녕하세요! (이름) 으로 바뀐다.
+- MEN, WOMAN, KIDS를 마우스호버할 때 해당 카테고리 목록들이 보여진다.
+- 관리자페이지는 관리자만 보여지고 관리자만 사용가능</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일입력창과 비밀번호 재설정 버튼으로 구성되어 있다.
+- 재설정 버튼 클릭시 해당 이메일로 새 비밀번호를 보냄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃, 개인정보, 주문조회, 찜목록 으로 구성되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1409,1100 +2479,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- 최근에 본 목록이 없다. 
 - 제품등록 버튼이 있다. 
 - 재고추가 버튼이 있다.
 - 남은 수량이 보인다. </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품 설명이 보여진다.
-- 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자로 
- 구성된다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
-- 이미지, 이름, 성별, 카테고리, 가격은 필수
-- 수정이 완료되면 알림을 띄우고 제품상세화면 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 주문일, 이름, 전화번호, 주소, 우편번호, 상세주소로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 주문번호, 제품번호, 이메일, 주문일, 주문수량, 우편번호
-- 기본키 : 주문일 = now()</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 화면에 5개의 신상품의 이미지와 가격, 이름을 나타낸다.
-- 이미지들 위에 전체보기 버튼이 있다. (클릭시 신상품인 모든 제품 검색한다.)
-- 총 10개의 신상품 제품이 있다.
-- 이전, 다음 버튼 클릭시 5개의 이미지가 움직이며 이전, 다음이 없을 경우 버튼 숨김</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신상품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문리스트번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>옵션번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 총가격, 주문수량, 주문상태로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- PK, AI : 주문리스트번호 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 옵션번호, 주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 주문리스트번호, 제품번호, 주문번호, 총가격, 주문수량, 주문상태
-- 기본키 : 배송상태 = 주문완료</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별, 카테고리, 소분류, 크기, 신상품, 가격, 정렬기준, 모두지우기로 구성된다.
-- 선택한 분류와 옵션으로 검색하여 리스트를 보여준다.
-- 가격은 최소가격, 최대가격으로 구성
-- 정렬기준은 가격낮은순, 가격높은순, 최근, 인기순으로 구성
-- 모두지우기 버튼으로 선택된 카테고리를 모두 초기화 할 수있다.
-- 신상품은 제품의 등록일로 부터 1달이 지나면 해당안됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>내목록번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>옵션번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 선택수량으로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 내목록번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 이메일, 옵션번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 내목록번호, 이메일, 옵션번호, 선택수량
-- 기본키 : 수량 = 0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0050</t>
-  </si>
-  <si>
-    <t>찜목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 이메일, 인증번호로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 이메일번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 이메일, 인증번호</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>찜목록번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 찜상태로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 찜목록번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 이메일, 제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 찜목록번호, 이메일, 제품번호, 찜상태</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 있는 제품의 이미지와 이름, 가격, 사이즈, 색상, 수량으로 구성
-- 수량은 변경 가능
-- 같은제품을 또 장바구니에 담으면 수량이 늘어난다.
-- 취소 버튼을 누르면 장바구니에서 삭제된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- 배송지가 입력이 안되어 있으면 안된 곳으로 focus되고 전송안됨
-- 구매가 완료되면 주문조회 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0051</t>
-  </si>
-  <si>
-    <t>RQ-0052</t>
-  </si>
-  <si>
-    <t>리뷰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>리뷰번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 리뷰타이틀, 리뷰내용, 별점, 작성일, 리뷰추천, 리뷰비추천
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 리뷰번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 이메일, 제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 리뷰번호, 이메일, 제품번호, 리뷰타이틀, 리뷰내용, 별점, 작성일
-- 기본키 : 작성일 = now(), 리뷰추천, 리뷰비추천 = 0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>추천번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>리뷰번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 추천상태
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 추천번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 리뷰번호, 이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 추천번호, 리뷰번호, 이메일, 추천상태
-- 기본키 : 추천상태 = 0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* 우선순위 낮음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-리스트의 최근에 본 제품과 같다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> * 우선순위 낮음
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품이미지와 가격, 이름으로 구성 되어 있다.
-- 한 페이지에 5개씩 보여진다.
-- 이전, 다음 버튼 클릭시 5개씩 이동하고 이전, 다음 이미지가 없으면 
- 처음, 마지막 이미지까지 이동하고 버튼을 숨김
-- 최대 10개 까지 보여진다. 
-- 최근에 본 제품이 맨왼쪽부터 순서대로 진행된다.
-- 이전에 본 제품이 없으면 이부분이 안보이게 숨긴다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 제품이미지, 이름, 성별, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>카테고리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>소분류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 가격, 등록일,
-  타이틀, 내용, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자, 삭제여부로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 카테고리, 소분류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 제품번호, 제품이미지, 이름, 성별, 카테고리, 가격, 등록일, 삭제여부
- 타이틀, 내용, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자
-- 기본키 : 등록일 = now(), 수입자 = 아디다스코리아[유], 삭제여부 = N</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2992,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3035,7 +3021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="132">
+    <row r="2" spans="1:8" ht="115.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3046,14 +3032,14 @@
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -3067,14 +3053,14 @@
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3088,13 +3074,13 @@
         <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="99">
@@ -3108,13 +3094,13 @@
         <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66">
@@ -3125,16 +3111,16 @@
         <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3154,7 +3140,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
@@ -3174,7 +3160,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5">
@@ -3188,16 +3174,16 @@
         <v>66</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="49.5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -3208,13 +3194,13 @@
         <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="297">
@@ -3222,19 +3208,19 @@
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5">
@@ -3248,13 +3234,13 @@
         <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66">
@@ -3268,13 +3254,13 @@
         <v>71</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3288,13 +3274,13 @@
         <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5">
@@ -3302,19 +3288,19 @@
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="115.5">
@@ -3322,19 +3308,19 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5">
@@ -3342,19 +3328,19 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="66">
@@ -3362,19 +3348,19 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="49.5">
@@ -3382,19 +3368,19 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33">
@@ -3402,19 +3388,19 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="99">
@@ -3422,39 +3408,39 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="181.5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="165">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99">
@@ -3462,39 +3448,39 @@
         <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="132">
       <c r="A24" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="33">
@@ -3502,19 +3488,19 @@
         <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="82.5">
@@ -3522,19 +3508,19 @@
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="99">
@@ -3542,19 +3528,19 @@
         <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66">
@@ -3562,19 +3548,19 @@
         <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="33">
@@ -3582,19 +3568,19 @@
         <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3602,19 +3588,19 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="82.5">
@@ -3622,19 +3608,19 @@
         <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="66">
@@ -3642,19 +3628,19 @@
         <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3662,19 +3648,19 @@
         <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="49.5">
@@ -3682,19 +3668,19 @@
         <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="33">
@@ -3702,19 +3688,19 @@
         <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="49.5">
@@ -3722,19 +3708,19 @@
         <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="49.5">
@@ -3742,19 +3728,19 @@
         <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="115.5">
@@ -3762,19 +3748,19 @@
         <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="49.5">
@@ -3782,19 +3768,19 @@
         <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66">
@@ -3802,19 +3788,19 @@
         <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="49.5">
@@ -3822,19 +3808,19 @@
         <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="66">
@@ -3842,19 +3828,19 @@
         <v>51</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="D42" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="115.5">
@@ -3862,19 +3848,19 @@
         <v>52</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="49.5">
@@ -3882,19 +3868,19 @@
         <v>53</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="D44" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66">
@@ -3902,19 +3888,19 @@
         <v>54</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="D45" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
@@ -3922,19 +3908,19 @@
         <v>55</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="82.5">
@@ -3942,139 +3928,139 @@
         <v>56</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66">
       <c r="A48" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="82.5">
       <c r="A49" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="66">
       <c r="A51" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="82.5">
       <c r="A52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>211</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="82.5">
       <c r="A53" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>212</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:7">
